--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,63 +673,63 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.71</v>
+        <v>2.21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>3.76</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.95</v>
+        <v>3.36</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.47</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.36</v>
+        <v>4.19</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.59</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.19</v>
+        <v>4.95</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>5.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.6</v>
+        <v>3.81</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.45</v>
+        <v>3.77</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.09</v>
+        <v>2.45</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.81</v>
+        <v>4.5</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.77</v>
+        <v>4.09</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.77</v>
+        <v>3.3</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.42</v>
+        <v>3.09</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.78</v>
+        <v>3.53</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.34</v>
+        <v>3.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.77</v>
+        <v>1.62</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.37</v>
+        <v>3.77</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>4.42</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.76</v>
+        <v>3.78</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.69</v>
+        <v>5.34</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.39</v>
+        <v>1.76</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.27</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:42</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.49</v>
+        <v>3.79</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.38</v>
+        <v>3.91</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.05</v>
+        <v>4.87</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.43</v>
+        <v>5.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:42</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.76</v>
+        <v>2.39</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.79</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.91</v>
+        <v>3.38</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.87</v>
+        <v>3.05</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.65</v>
+        <v>3.43</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.42</v>
+        <v>3.97</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.12</v>
+        <v>4.96</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.94</v>
+        <v>4.7</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.95</v>
+        <v>1.63</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.52</v>
+        <v>1.66</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,40 +8608,40 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>4.36</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>4.28</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.56</v>
+        <v>5.19</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.29</v>
+        <v>5.15</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.71</v>
+        <v>2.95</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.77</v>
+        <v>3.52</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.97</v>
+        <v>3.25</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.11</v>
+        <v>3.62</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.38</v>
+        <v>3.42</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.69</v>
+        <v>4.12</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.02</v>
+        <v>3.94</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -9037,46 +9037,46 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.36</v>
+        <v>3.57</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.28</v>
+        <v>3.43</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -9084,15 +9084,15 @@
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.19</v>
+        <v>4.08</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.15</v>
+        <v>3.78</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>2.65</v>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>3</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,32 +9720,32 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>30/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>30/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R101" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I102" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
         <v>3</v>
       </c>
-      <c r="J102" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:54</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>2.59</v>
-      </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.69</v>
+        <v>1.86</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.38</v>
+        <v>4.23</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.33</v>
+        <v>3.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.06</v>
+        <v>4.7</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.81</v>
+        <v>4.21</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.7</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.86</v>
+        <v>3.53</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.23</v>
+        <v>3.82</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.94</v>
+        <v>3.63</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.7</v>
+        <v>2.01</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.21</v>
+        <v>2.13</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>3.65</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.53</v>
+        <v>1.59</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.63</v>
+        <v>4.06</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.01</v>
+        <v>4.5</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.13</v>
+        <v>6.43</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>1.84</v>
+        <v>2.46</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.59</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.06</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.5</v>
+        <v>3.06</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.43</v>
+        <v>2.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,48 +10532,48 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>03/10/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>03/10/2023 20:40</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O110" t="inlineStr">
+      <c r="R110" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S110" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P110" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:40</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>4.56</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.85</v>
+        <v>3.27</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.8</v>
+        <v>4.03</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.44</v>
+        <v>3.83</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.11</v>
+        <v>4.8</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,558 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45203.86458333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>29/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:18</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>29/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>29/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45203.86458333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45203.86458333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45203.86458333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>29/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>29/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:30</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>29/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45203.86458333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45203.875</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-bristol-city/6NvR7mRq/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-preston/GKjqFGGJ/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.59</v>
+        <v>3.76</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.19</v>
+        <v>3.36</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.33</v>
+        <v>4.7</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.88</v>
+        <v>3.68</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.9</v>
+        <v>3.59</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.95</v>
+        <v>4.19</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5.47</v>
+        <v>4.33</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.45</v>
+        <v>1.71</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:47</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>3.88</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.47</v>
+        <v>3.9</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.05</v>
+        <v>4.95</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.17</v>
+        <v>5.47</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.78</v>
+        <v>3.31</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.8</v>
+        <v>3.47</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.64</v>
+        <v>3.05</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.71</v>
+        <v>3.17</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.68</v>
+        <v>3.78</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.39</v>
+        <v>3.8</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.19</v>
+        <v>4.64</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.78</v>
+        <v>4.71</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.29</v>
+        <v>4.19</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-preston/GKjqFGGJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.37</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.84</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>3.78</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.34</v>
+        <v>4.32</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.66</v>
+        <v>3.55</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.86</v>
+        <v>1.78</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.48</v>
+        <v>1.76</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.68</v>
+        <v>4.77</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>4.64</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.02</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.54</v>
+        <v>3.37</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,22 +2145,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.71</v>
+        <v>5.17</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.93</v>
+        <v>4.02</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2168,40 +2168,40 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.82</v>
+        <v>4.25</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.57</v>
+        <v>3.76</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>5.37</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.34</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.02</v>
+        <v>3.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.61</v>
+        <v>3.36</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.75</v>
+        <v>2.44</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.46</v>
+        <v>3.68</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3.61</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.18</v>
+        <v>3.63</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,22 +2421,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>5.17</v>
+        <v>1.71</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.02</v>
+        <v>1.93</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2444,40 +2444,40 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.76</v>
+        <v>3.57</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>5.37</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>4.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.18</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.91</v>
+        <v>3.48</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.64</v>
+        <v>3.48</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>12/08/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>06/08/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:57</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.08</v>
+        <v>3.69</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.77</v>
+        <v>4.66</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.64</v>
+        <v>3.74</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.61</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.64</v>
+        <v>3.18</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.79</v>
+        <v>3.79</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.88</v>
+        <v>5.38</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19/08/2023 14:12</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.86</v>
+        <v>3.53</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>3.97</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.61</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.18</v>
+        <v>1.68</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-hull-city/M1Pp0s7p/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-ipswich/4MblK2bG/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:22</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.24</v>
+        <v>3.51</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:38</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.03</v>
+        <v>3.63</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:38</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-birmingham/YyTla1Mj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-coventry/xM5Fb4kM/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:27</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.91</v>
+        <v>3.99</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:27</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.62</v>
+        <v>4.11</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>7.18</v>
+        <v>5.12</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 15:27</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.36</v>
+        <v>5.99</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-cardiff/Ue6BapzG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-rotherham/EelOD0yp/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>3.26</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.02</v>
+        <v>3.23</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.94</v>
+        <v>3.05</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.52</v>
+        <v>3.06</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-huddersfield/EX5yN4Ec/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-preston/IP2hJMDM/</t>
         </is>
       </c>
     </row>
@@ -3333,30 +3333,30 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.79</v>
+        <v>2.04</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5.38</v>
+        <v>2.32</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.97</v>
+        <v>3.46</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.68</v>
+        <v>3.26</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-ipswich/4MblK2bG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-watford/Cn2dItTS/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.51</v>
+        <v>1.44</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>13/08/2023 15:27</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.55</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,15 +3456,15 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.26</v>
+        <v>4.91</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>13/08/2023 15:27</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.23</v>
+        <v>4.62</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.05</v>
+        <v>7.18</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>13/08/2023 15:27</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.06</v>
+        <v>6.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-preston/IP2hJMDM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-cardiff/Ue6BapzG/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,11 +3540,11 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.46</v>
+        <v>3.24</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.83</v>
+        <v>4.03</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-watford/Cn2dItTS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-birmingham/YyTla1Mj/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
       <c r="J35" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 14:12</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.99</v>
+        <v>3.86</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.11</v>
+        <v>3.85</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.12</v>
+        <v>4.61</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.99</v>
+        <v>4.18</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-rotherham/EelOD0yp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-hull-city/M1Pp0s7p/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.11</v>
+        <v>1.56</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/08/2023 15:22</t>
+          <t>19/08/2023 14:27</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.56</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.51</v>
+        <v>4.02</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/08/2023 15:38</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.63</v>
+        <v>5.94</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.29</v>
+        <v>4.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/08/2023 15:38</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-coventry/xM5Fb4kM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-huddersfield/EX5yN4Ec/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.35</v>
+        <v>5.52</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>5.83</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>5.41</v>
+        <v>4.17</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>5.58</v>
+        <v>4.22</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>9.029999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>8.76</v>
+        <v>1.61</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-leicester/x44NWurM/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>5.52</v>
+        <v>2.91</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5.83</v>
+        <v>2.47</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>26/08/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>19/08/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>26/08/2023 15:56</t>
         </is>
       </c>
-      <c r="N40" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>20/08/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:50</t>
-        </is>
-      </c>
       <c r="R40" t="n">
-        <v>1.63</v>
+        <v>2.59</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.61</v>
+        <v>3.09</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-leicester/x44NWurM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-swansea/MgsngrDq/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.91</v>
+        <v>2.18</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>26/08/2023 15:25</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.3</v>
+        <v>3.68</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.59</v>
+        <v>3.29</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-swansea/MgsngrDq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.17</v>
+        <v>2.39</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.67</v>
+        <v>2.36</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,31 +4284,31 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.22</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.19</v>
+        <v>3.67</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:48</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-leeds/Uw1FY1D9/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.39</v>
+        <v>3.36</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.36</v>
+        <v>3.69</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:36</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.22</v>
+        <v>3.49</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:48</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.3</v>
+        <v>2.23</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.02</v>
+        <v>2.07</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-leeds/Uw1FY1D9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-norwich/YB76zOrc/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.36</v>
+        <v>1.99</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.69</v>
+        <v>2.02</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>26/08/2023 15:36</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.23</v>
+        <v>3.77</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.07</v>
+        <v>3.89</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-norwich/YB76zOrc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-sunderland/K8JOBv6d/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.75</v>
+        <v>3.32</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.77</v>
+        <v>4.01</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.89</v>
+        <v>3.47</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-sunderland/K8JOBv6d/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-sheffield-wed/GC4JcO4S/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.39</v>
+        <v>3.63</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.01</v>
+        <v>4.48</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.47</v>
+        <v>4.05</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-sheffield-wed/GC4JcO4S/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-plymouth/tIKKCKjj/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.52</v>
+        <v>5.41</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.63</v>
+        <v>5.58</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.48</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.05</v>
+        <v>8.76</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-plymouth/tIKKCKjj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.49</v>
+        <v>3.19</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 17:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.68</v>
+        <v>4.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 17:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.39</v>
+        <v>3.94</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.25</v>
+        <v>5.51</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 17:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.34</v>
+        <v>4.81</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-huddersfield/0n3uwH4e/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Norwich</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>4.27</v>
+        <v>1.89</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.57</v>
+        <v>1.99</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.87</v>
+        <v>3.68</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.89</v>
+        <v>3.39</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.86</v>
+        <v>4.25</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.81</v>
+        <v>4.34</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.51</v>
+        <v>4.27</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.84</v>
+        <v>4.57</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.74</v>
+        <v>3.87</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.72</v>
+        <v>1.86</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.61</v>
+        <v>2.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.55</v>
+        <v>2.84</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.37</v>
+        <v>3.74</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.58</v>
+        <v>3.9</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.48</v>
+        <v>2.72</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.97</v>
+        <v>2.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.56</v>
+        <v>4.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.8</v>
+        <v>4.58</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.71</v>
+        <v>5.48</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.43</v>
+        <v>5.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,63 +5733,63 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.75</v>
+        <v>4.56</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.93</v>
+        <v>4.8</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>6.03</v>
+        <v>5.71</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.46</v>
+        <v>6.43</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.21</v>
+        <v>4.75</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.46</v>
+        <v>4.93</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.26</v>
+        <v>6.03</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.09</v>
+        <v>6.46</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,63 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.49</v>
+        <v>4.46</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.58</v>
+        <v>5.26</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.26</v>
+        <v>6.09</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -6001,46 +6001,46 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>26/08/2023 17:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.17</v>
+        <v>3.65</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>26/08/2023 17:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.94</v>
+        <v>3.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6048,15 +6048,15 @@
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.51</v>
+        <v>3.58</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>26/08/2023 17:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.81</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-huddersfield/0n3uwH4e/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.98</v>
+        <v>2.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.87</v>
+        <v>3.52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.81</v>
+        <v>2.6</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.77</v>
+        <v>2.45</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.82</v>
+        <v>2.33</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,48 +6576,48 @@
         </is>
       </c>
       <c r="L67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>03/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>03/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
         <v>2.98</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:47</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>03/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:47</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>03/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>2.45</v>
-      </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>3.95</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.04</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.52</v>
+        <v>4.09</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.75</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.31</v>
+        <v>1.86</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>4.04</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.44</v>
+        <v>4.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.7</v>
+        <v>3.29</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.07</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.5</v>
+        <v>3.81</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.09</v>
+        <v>3.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.24</v>
+        <v>2.99</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.53</v>
+        <v>2.47</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.77</v>
+        <v>3.3</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.42</v>
+        <v>3.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.78</v>
+        <v>3.53</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.34</v>
+        <v>3.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7381,30 +7381,30 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,31 +7412,31 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.71</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.69</v>
+        <v>3.28</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.74</v>
+        <v>3.37</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.39</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>19/09/2023 20:15</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>19/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,40 +7872,40 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
+          <t>20/09/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R81" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T81" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.39</v>
+        <v>3.46</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.27</v>
+        <v>3.83</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,31 +7964,31 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.43</v>
+        <v>1.98</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.42</v>
+        <v>3.43</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.72</v>
+        <v>2.96</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.66</v>
+        <v>3.43</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.11</v>
+        <v>3.62</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.69</v>
+        <v>2.39</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.02</v>
+        <v>2.07</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8485,30 +8485,30 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8516,31 +8516,31 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.96</v>
+        <v>3.57</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.97</v>
+        <v>3.43</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.96</v>
+        <v>4.08</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.7</v>
+        <v>3.78</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.63</v>
+        <v>2.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.66</v>
+        <v>3.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,40 +8608,40 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.36</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.28</v>
+        <v>3.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.19</v>
+        <v>2.56</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>5.15</v>
+        <v>2.29</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.96</v>
+        <v>1.94</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,11 +8784,11 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.43</v>
+        <v>2.07</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.92</v>
+        <v>3.42</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.39</v>
+        <v>4.12</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.07</v>
+        <v>3.94</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.95</v>
+        <v>1.71</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.52</v>
+        <v>1.77</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:50</t>
-        </is>
-      </c>
       <c r="R92" t="n">
-        <v>2.56</v>
+        <v>4.96</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.29</v>
+        <v>4.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>3</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.42</v>
+        <v>4.38</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.12</v>
+        <v>4.69</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.94</v>
+        <v>5.02</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U94" t="inlineStr">
         <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.39</v>
+        <v>1.84</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.78</v>
+        <v>1.59</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.45</v>
+        <v>4.06</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.99</v>
+        <v>4.5</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.65</v>
+        <v>6.43</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.93</v>
+        <v>3.53</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.34</v>
+        <v>3.63</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.52</v>
+        <v>2.01</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.59</v>
+        <v>2.13</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.81</v>
+        <v>1.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.65</v>
+        <v>1.86</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.19</v>
+        <v>4.23</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.17</v>
+        <v>3.94</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.75</v>
+        <v>4.7</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3</v>
+        <v>4.21</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.89</v>
+        <v>2.31</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.11</v>
+        <v>3.52</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.67</v>
+        <v>3.36</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>3.72</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.36</v>
+        <v>3.36</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>3.65</v>
+        <v>2.81</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.53</v>
+        <v>2.65</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.82</v>
+        <v>3.19</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.63</v>
+        <v>3.17</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>2.94</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.59</v>
+        <v>2.93</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.76</v>
+        <v>3.42</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.06</v>
+        <v>3.34</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.43</v>
+        <v>2.59</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.38</v>
+        <v>3.55</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.81</v>
+        <v>2.65</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.72</v>
+        <v>3.06</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.36</v>
+        <v>2.81</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>2</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.64</v>
+        <v>2.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.33</v>
+        <v>3.52</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.11</v>
+        <v>2.75</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.56</v>
+        <v>2.77</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,48 +10624,48 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>03/10/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>03/10/2023 20:40</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O111" t="inlineStr">
+      <c r="R111" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:40</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>3.83</v>
+        <v>4.56</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10785,34 +10785,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.61</v>
+        <v>2.01</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -10820,36 +10820,36 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.75</v>
+        <v>4.03</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.77</v>
+        <v>3.83</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.44</v>
+        <v>2.68</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.5</v>
+        <v>2.82</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.69</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.44</v>
+        <v>3.36</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>7.53</v>
+        <v>2.68</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>7.17</v>
+        <v>2.66</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.46</v>
+        <v>3.71</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.34</v>
+        <v>3.62</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,63 +11253,63 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.14</v>
+        <v>1.32</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.75</v>
+        <v>5.74</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.71</v>
+        <v>5.85</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.62</v>
+        <v>9.67</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.43</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.74</v>
+        <v>4.69</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.85</v>
+        <v>4.44</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>9.67</v>
+        <v>7.53</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>9.470000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.66</v>
+        <v>3.61</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,98 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/rotherham-bristol-city/6NvR7mRq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45205.875</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>29/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>29/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>29/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-west-brom/vywZ5Red/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>3.29</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.07</v>
+        <v>2.69</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>3.81</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,38 +6929,38 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.59</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.87</v>
+        <v>3.7</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,15 +6968,15 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.81</v>
+        <v>3.07</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.78</v>
+        <v>3.94</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.94</v>
+        <v>3.78</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>1.84</v>
+        <v>2.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.59</v>
+        <v>2.93</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.76</v>
+        <v>3.42</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>4.06</v>
+        <v>3.34</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>6.43</v>
+        <v>2.59</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>3.65</v>
+        <v>2.81</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.53</v>
+        <v>2.65</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.82</v>
+        <v>3.19</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.63</v>
+        <v>3.17</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.31</v>
+        <v>2.78</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.72</v>
+        <v>2.99</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.36</v>
+        <v>2.65</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.11</v>
+        <v>4.23</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.67</v>
+        <v>3.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.91</v>
+        <v>4.7</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.81</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.65</v>
+        <v>3.53</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.19</v>
+        <v>3.82</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.17</v>
+        <v>3.63</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.75</v>
+        <v>2.01</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.94</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.93</v>
+        <v>1.59</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.42</v>
+        <v>3.76</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.34</v>
+        <v>4.06</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.59</v>
+        <v>6.43</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.69</v>
+        <v>2.31</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.38</v>
+        <v>3.52</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.06</v>
+        <v>3.72</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.81</v>
+        <v>3.36</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -10509,34 +10509,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2.61</v>
+        <v>2.01</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10544,36 +10544,36 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.75</v>
+        <v>4.03</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.77</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.11</v>
+        <v>4.8</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10785,34 +10785,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>2.01</v>
+        <v>2.61</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -10820,36 +10820,36 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.03</v>
+        <v>2.75</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.83</v>
+        <v>2.77</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.02</v>
+        <v>1.6</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:17</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.57</v>
+        <v>5.58</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.47</v>
+        <v>6.56</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
       <c r="J115" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.6</v>
+        <v>3.02</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:17</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>5.58</v>
+        <v>2.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>6.56</v>
+        <v>2.47</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.68</v>
+        <v>3.62</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.66</v>
+        <v>3.43</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.14</v>
+        <v>1.32</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.75</v>
+        <v>5.74</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.71</v>
+        <v>5.85</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.62</v>
+        <v>9.67</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.43</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>5.74</v>
+        <v>4.69</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5.85</v>
+        <v>4.44</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>9.67</v>
+        <v>7.53</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>9.470000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.69</v>
+        <v>3.6</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.44</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>7.53</v>
+        <v>3.34</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>7.17</v>
+        <v>3.61</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,48 +11452,48 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
+          <t>04/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
           <t>04/10/2023 20:43</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P120" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:43</t>
-        </is>
-      </c>
-      <c r="R120" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T120" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:43</t>
-        </is>
-      </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11678,6 +11678,282 @@
       <c r="V122" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/birmingham-west-brom/vywZ5Red/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45206.5625</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>30/09/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-middlesbrough/zNj76bn7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.69</v>
+        <v>3.81</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.44</v>
+        <v>3.77</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.87</v>
+        <v>3.29</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.81</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.77</v>
+        <v>3.44</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.98</v>
+        <v>2.99</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.62</v>
+        <v>2.76</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.78</v>
+        <v>2.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.34</v>
+        <v>2.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,31 +7596,31 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.39</v>
+        <v>3.71</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.69</v>
+        <v>3.28</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.84</v>
+        <v>3.46</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.13</v>
+        <v>3.83</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,31 +7872,31 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.33</v>
+        <v>3.69</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.66</v>
+        <v>2.11</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.46</v>
+        <v>2.39</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.83</v>
+        <v>2.27</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,40 +7964,40 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
+          <t>20/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>3</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.39</v>
+        <v>2.84</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.27</v>
+        <v>3.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:38</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.43</v>
+        <v>2.42</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.96</v>
+        <v>1.98</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L87" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
         <v>3.43</v>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>3.92</v>
-      </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.39</v>
+        <v>4.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.07</v>
+        <v>3.78</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.12</v>
+        <v>3.43</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.43</v>
+        <v>3.92</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.08</v>
+        <v>2.39</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.78</v>
+        <v>2.07</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:54</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.59</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,48 +9704,48 @@
         </is>
       </c>
       <c r="L101" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
         <v>2.65</v>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>3</v>
-      </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>1.69</v>
+        <v>2.94</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.89</v>
+        <v>2.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.11</v>
+        <v>3.42</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,32 +9812,32 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.67</v>
+        <v>3.34</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>30/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>30/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:47</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.39</v>
+        <v>1.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.78</v>
+        <v>1.89</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.55</v>
+        <v>4.11</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.99</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.65</v>
+        <v>4.36</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.23</v>
+        <v>3.76</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.94</v>
+        <v>4.06</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.21</v>
+        <v>6.43</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>3.65</v>
+        <v>1.7</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.82</v>
+        <v>4.23</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.63</v>
+        <v>3.94</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.01</v>
+        <v>4.7</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.13</v>
+        <v>4.21</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>3.65</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.59</v>
+        <v>3.53</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.5</v>
+        <v>2.01</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.43</v>
+        <v>2.13</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.6</v>
+        <v>3.02</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:17</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>5.58</v>
+        <v>2.57</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.56</v>
+        <v>2.47</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.02</v>
+        <v>1.6</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:17</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.57</v>
+        <v>5.58</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.47</v>
+        <v>6.56</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.03</v>
+        <v>2.68</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.62</v>
+        <v>2.68</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.43</v>
+        <v>2.66</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>5.74</v>
+        <v>3.75</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>5.85</v>
+        <v>3.71</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>9.67</v>
+        <v>3.62</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>9.470000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4.69</v>
+        <v>5.74</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.44</v>
+        <v>5.85</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.53</v>
+        <v>9.67</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>7.17</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.6</v>
+        <v>4.69</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>4.44</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.34</v>
+        <v>7.53</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.61</v>
+        <v>7.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.66</v>
+        <v>3.61</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11954,6 +11954,742 @@
       <c r="V125" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:33</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:33</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:06</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:33</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:33</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.97</v>
+        <v>2.98</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.52</v>
+        <v>3.87</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.6</v>
+        <v>3.81</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.45</v>
+        <v>3.77</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>3.55</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,48 +6576,48 @@
         </is>
       </c>
       <c r="L67" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>16/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
         <v>1.98</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:48</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>3.77</v>
-      </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.95</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.09</v>
+        <v>4.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>3.95</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.04</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.52</v>
+        <v>4.09</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>2.65</v>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>3</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,32 +9720,32 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>30/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>30/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R101" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I102" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
         <v>3</v>
       </c>
-      <c r="J102" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:54</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>2.59</v>
-      </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.76</v>
+        <v>4.23</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.06</v>
+        <v>3.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>6.43</v>
+        <v>4.21</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.7</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.86</v>
+        <v>3.53</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.23</v>
+        <v>3.82</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.94</v>
+        <v>3.63</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.7</v>
+        <v>2.01</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.21</v>
+        <v>2.13</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>3.65</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.53</v>
+        <v>1.59</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.63</v>
+        <v>4.06</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.01</v>
+        <v>4.5</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.13</v>
+        <v>6.43</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.66</v>
+        <v>3.61</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.03</v>
+        <v>1.44</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.75</v>
+        <v>4.69</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.71</v>
+        <v>4.44</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.62</v>
+        <v>7.53</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.43</v>
+        <v>7.17</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
       <c r="J118" t="n">
-        <v>1.32</v>
+        <v>2.68</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.32</v>
+        <v>2.82</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>5.74</v>
+        <v>3.49</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5.85</v>
+        <v>3.36</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>9.67</v>
+        <v>2.68</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>9.470000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.69</v>
+        <v>3.75</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.44</v>
+        <v>3.71</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>7.53</v>
+        <v>3.62</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>7.17</v>
+        <v>3.43</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.6</v>
+        <v>5.74</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.46</v>
+        <v>5.85</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.34</v>
+        <v>9.67</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.61</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,63 +11805,63 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2.69</v>
+        <v>1.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.29</v>
+        <v>1.3</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.38</v>
+        <v>5.25</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.23</v>
+        <v>5.92</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.77</v>
+        <v>7.69</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.56</v>
+        <v>10.84</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,63 +11897,63 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.47</v>
+        <v>2.76</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.79</v>
+        <v>3.27</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:21</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.58</v>
+        <v>3.23</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.1</v>
+        <v>2.78</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,42 +11989,42 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.55</v>
+        <v>3.46</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R126" t="n">
@@ -12032,20 +12032,20 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.54</v>
+        <v>2.6</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.07</v>
+        <v>3.78</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.39</v>
+        <v>3.28</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.25</v>
+        <v>4.16</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>6.39</v>
+        <v>2.96</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>1.55</v>
@@ -12188,11 +12188,11 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N128" t="n">
@@ -12204,11 +12204,11 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.77</v>
+        <v>4.63</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>6.55</v>
+        <v>7.06</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,11 +12265,11 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>1.55</v>
@@ -12280,11 +12280,11 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N129" t="n">
@@ -12296,11 +12296,11 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.63</v>
+        <v>4.77</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R129" t="n">
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.06</v>
+        <v>6.55</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.16</v>
+        <v>2.87</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.46</v>
+        <v>3.58</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.62</v>
+        <v>3.79</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.35</v>
+        <v>2.69</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:21</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.23</v>
+        <v>2.77</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,439 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45220.5625</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
         <v>1</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>1</v>
       </c>
-      <c r="J133" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>04/10/2023 04:42</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:33</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>04/10/2023 04:42</t>
-        </is>
-      </c>
-      <c r="P133" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:33</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>04/10/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T133" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:33</t>
-        </is>
-      </c>
-      <c r="V133" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+      <c r="J134" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:19</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/preston-millwall/v9xXMJWm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.91</v>
+        <v>3.37</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.84</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.78</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.32</v>
+        <v>2.34</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>12/08/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>06/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>06/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>12/08/2023 15:57</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>05/08/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:57</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.78</v>
+        <v>5.17</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.76</v>
+        <v>4.02</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.08</v>
+        <v>3.76</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.77</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.64</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.37</v>
+        <v>2.47</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.84</v>
+        <v>3.46</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.84</v>
+        <v>3.05</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.34</v>
+        <v>3.18</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>5.17</v>
+        <v>2.04</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.02</v>
+        <v>2.1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.76</v>
+        <v>3.61</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>3.55</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>3.64</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.02</v>
+        <v>1.71</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.54</v>
+        <v>1.93</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.44</v>
+        <v>5.37</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.97</v>
+        <v>4.34</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.02</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.61</v>
+        <v>3.36</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.75</v>
+        <v>2.44</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.71</v>
+        <v>2.86</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.93</v>
+        <v>3.48</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.82</v>
+        <v>3.26</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.37</v>
+        <v>2.68</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.48</v>
+        <v>2.04</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.26</v>
+        <v>3.82</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.48</v>
+        <v>3.69</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.68</v>
+        <v>4.66</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>3.74</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.66</v>
+        <v>3.75</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.74</v>
+        <v>3.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>4.08</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:53</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.05</v>
+        <v>4.77</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.18</v>
+        <v>4.64</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.79</v>
+        <v>1.79</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5.38</v>
+        <v>1.88</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>19/08/2023 14:12</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>19/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>19/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:28</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:28</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:45</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-ipswich/4MblK2bG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-hull-city/M1Pp0s7p/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19/08/2023 15:22</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.51</v>
+        <v>3.24</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>19/08/2023 15:38</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.63</v>
+        <v>4.03</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>19/08/2023 15:38</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-coventry/xM5Fb4kM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-birmingham/YyTla1Mj/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:27</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.99</v>
+        <v>4.91</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:27</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.11</v>
+        <v>4.62</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19/08/2023 15:28</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.12</v>
+        <v>7.18</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:27</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.99</v>
+        <v>6.36</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-rotherham/EelOD0yp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-cardiff/Ue6BapzG/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 14:27</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.26</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.23</v>
+        <v>4.02</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:33</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.05</v>
+        <v>5.94</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 15:28</t>
+          <t>12/08/2023 16:13</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.06</v>
+        <v>4.52</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-preston/IP2hJMDM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-huddersfield/EX5yN4Ec/</t>
         </is>
       </c>
     </row>
@@ -3333,30 +3333,30 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Watford</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.04</v>
+        <v>3.79</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.32</v>
+        <v>5.38</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.46</v>
+        <v>3.97</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>12/08/2023 16:13</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.26</v>
+        <v>1.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>19/08/2023 15:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-watford/Cn2dItTS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-ipswich/4MblK2bG/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.44</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:27</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>2.55</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,15 +3456,15 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.91</v>
+        <v>3.26</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:27</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.62</v>
+        <v>3.23</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>7.18</v>
+        <v>3.05</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>13/08/2023 15:27</t>
+          <t>13/08/2023 15:28</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.36</v>
+        <v>3.06</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-cardiff/Ue6BapzG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-preston/IP2hJMDM/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,11 +3540,11 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.03</v>
+        <v>3.83</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-birmingham/YyTla1Mj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-watford/Cn2dItTS/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19/08/2023 14:12</t>
+          <t>19/08/2023 15:28</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.86</v>
+        <v>3.99</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,32 +3648,32 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.85</v>
+        <v>4.11</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>19/08/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
           <t>19/08/2023 15:56</t>
         </is>
       </c>
-      <c r="R35" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-hull-city/M1Pp0s7p/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-rotherham/EelOD0yp/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.79</v>
+        <v>2.28</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 15:22</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>3.56</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.02</v>
+        <v>3.51</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19/08/2023 15:33</t>
+          <t>19/08/2023 15:38</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.94</v>
+        <v>3.63</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.52</v>
+        <v>3.29</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:38</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-huddersfield/EX5yN4Ec/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-coventry/xM5Fb4kM/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.49</v>
+        <v>3.19</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>1.35</v>
+        <v>2.18</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>5.41</v>
+        <v>3.68</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>9.029999999999999</v>
+        <v>3.29</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.76</v>
+        <v>3.12</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
         </is>
       </c>
     </row>
@@ -4805,46 +4805,46 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.17</v>
+        <v>1.35</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.67</v>
+        <v>1.35</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.38</v>
+        <v>5.41</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.19</v>
+        <v>5.58</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,24 +4852,24 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.61</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.94</v>
+        <v>8.76</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.39</v>
+        <v>4.46</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.25</v>
+        <v>5.26</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.34</v>
+        <v>6.09</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.27</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.57</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.87</v>
+        <v>4.75</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.89</v>
+        <v>4.93</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.86</v>
+        <v>6.03</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.81</v>
+        <v>6.46</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.72</v>
+        <v>5.71</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.38</v>
+        <v>6.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.48</v>
+        <v>3.58</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.97</v>
+        <v>3.26</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.71</v>
+        <v>2.72</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.43</v>
+        <v>2.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.51</v>
+        <v>4.27</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.48</v>
+        <v>4.57</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.75</v>
+        <v>3.87</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.03</v>
+        <v>1.86</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.46</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.21</v>
+        <v>3.68</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.26</v>
+        <v>4.25</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.09</v>
+        <v>4.34</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.49</v>
+        <v>4.58</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.58</v>
+        <v>5.48</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.26</v>
+        <v>5.97</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.87</v>
+        <v>2.33</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.42</v>
+        <v>3.07</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.96</v>
+        <v>2.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,11 +6392,11 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.98</v>
+        <v>2.31</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.52</v>
+        <v>3.29</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.45</v>
+        <v>3.44</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>03/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
         <v>3.68</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3.87</v>
-      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.81</v>
+        <v>4.04</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.77</v>
+        <v>4.52</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.97</v>
+        <v>1.93</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.13</v>
+        <v>4.5</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.98</v>
+        <v>4.09</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.09</v>
+        <v>2.45</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.07</v>
+        <v>4.42</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>3</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.42</v>
+        <v>4.38</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.12</v>
+        <v>4.69</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.94</v>
+        <v>5.02</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.95</v>
+        <v>1.71</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.52</v>
+        <v>1.77</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="N89" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:50</t>
-        </is>
-      </c>
       <c r="R89" t="n">
-        <v>2.56</v>
+        <v>4.96</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.29</v>
+        <v>4.7</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8669,62 +8669,62 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.53</v>
+        <v>1.63</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.21</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:42</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:50</t>
-        </is>
-      </c>
       <c r="R90" t="n">
-        <v>2.85</v>
+        <v>5.19</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.26</v>
+        <v>5.15</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.96</v>
+        <v>2.53</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.43</v>
+        <v>2.21</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.39</v>
+        <v>2.85</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.07</v>
+        <v>3.26</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.71</v>
+        <v>2.96</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.77</v>
+        <v>3.43</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.96</v>
+        <v>2.39</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.7</v>
+        <v>2.07</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.72</v>
+        <v>2.95</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.66</v>
+        <v>3.52</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.11</v>
+        <v>3.3</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.38</v>
+        <v>3.25</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.69</v>
+        <v>2.56</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.02</v>
+        <v>2.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.36</v>
+        <v>3.62</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.28</v>
+        <v>3.42</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.19</v>
+        <v>4.12</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.15</v>
+        <v>3.94</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>1.7</v>
+        <v>2.39</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.86</v>
+        <v>2.78</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.23</v>
+        <v>3.55</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.94</v>
+        <v>3.45</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.7</v>
+        <v>2.99</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.21</v>
+        <v>2.65</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>3.65</v>
+        <v>1.7</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.82</v>
+        <v>4.23</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.63</v>
+        <v>3.94</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.01</v>
+        <v>4.7</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.13</v>
+        <v>4.21</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>3.65</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.59</v>
+        <v>3.53</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.06</v>
+        <v>3.63</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.5</v>
+        <v>2.01</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.43</v>
+        <v>2.13</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>1.59</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>4.06</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.06</v>
+        <v>4.5</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.81</v>
+        <v>6.43</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.87</v>
+        <v>4.16</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.78</v>
+        <v>4.44</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.28</v>
+        <v>4.63</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.16</v>
+        <v>6.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.96</v>
+        <v>7.06</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.49</v>
+        <v>2.54</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.44</v>
+        <v>3.46</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.63</v>
+        <v>3.62</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>6.17</v>
+        <v>2.87</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.06</v>
+        <v>2.8</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G129" t="n">
+        <v>4</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
         <v>2</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Bristol City</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
       <c r="J129" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.44</v>
+        <v>4.07</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.77</v>
+        <v>4.39</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>6.17</v>
+        <v>5.25</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>6.55</v>
+        <v>6.39</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.07</v>
+        <v>4.44</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.39</v>
+        <v>4.77</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>5.25</v>
+        <v>6.17</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>6.39</v>
+        <v>6.55</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>1</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
       <c r="J135" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.81</v>
+        <v>2.32</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.61</v>
+        <v>3.33</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.91</v>
+        <v>3.13</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.95</v>
+        <v>3.38</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.29</v>
+        <v>3.94</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,11 +13032,11 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R137" t="n">
@@ -13048,16 +13048,660 @@
         </is>
       </c>
       <c r="T137" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
         <v>5.23</v>
       </c>
-      <c r="U137" t="inlineStr">
+      <c r="U138" t="inlineStr">
         <is>
           <t>21/10/2023 15:54</t>
         </is>
       </c>
-      <c r="V137" t="inlineStr">
+      <c r="V138" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:34</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.44</v>
+        <v>3.76</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:52</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-preston/GKjqFGGJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.36</v>
+        <v>4.19</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.59</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.19</v>
+        <v>4.95</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>5.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.71</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.69</v>
+        <v>2.36</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.88</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.9</v>
+        <v>3.47</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.95</v>
+        <v>3.05</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.47</v>
+        <v>3.17</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.78</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.47</v>
+        <v>3.8</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>4.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.17</v>
+        <v>4.71</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N8" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22/06/2023 11:46</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>22/06/2023 11:46</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>3.78</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>22/06/2023 11:47</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22/06/2023 11:47</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>4.71</v>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:52</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.19</v>
+        <v>3.29</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-preston/GKjqFGGJ/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.37</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.84</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>3.78</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.34</v>
+        <v>4.32</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.18</v>
+        <v>5.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.91</v>
+        <v>4.02</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.64</v>
+        <v>3.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.78</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.32</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>5.17</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.02</v>
+        <v>2.47</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.25</v>
+        <v>3.46</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.76</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>3.18</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.47</v>
+        <v>3.37</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.46</v>
+        <v>3.84</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.05</v>
+        <v>1.84</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.18</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.55</v>
+        <v>5.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.64</v>
+        <v>4.34</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.71</v>
+        <v>3.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.93</v>
+        <v>2.54</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.82</v>
+        <v>3.42</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.37</v>
+        <v>2.44</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.34</v>
+        <v>2.97</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.54</v>
+        <v>3.48</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.36</v>
+        <v>3.48</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.97</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.48</v>
+        <v>2.04</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.26</v>
+        <v>3.82</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.48</v>
+        <v>3.69</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.68</v>
+        <v>4.66</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>3.74</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.66</v>
+        <v>3.75</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.74</v>
+        <v>3.63</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,32 +2636,32 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.61</v>
+        <v>4.08</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>12/08/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>07/08/2023 13:08</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>12/08/2023 15:49</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>07/08/2023 13:08</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:51</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
         </is>
       </c>
     </row>
@@ -2689,34 +2689,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2724,36 +2724,36 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.08</v>
+        <v>3.61</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:53</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.77</v>
+        <v>3.55</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.64</v>
+        <v>3.64</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-plymouth/U51HH9xI/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-swansea/j5770QK9/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
-        <v>5.52</v>
+        <v>1.35</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5.83</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.17</v>
+        <v>5.41</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.22</v>
+        <v>5.58</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.63</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.61</v>
+        <v>8.76</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-leicester/x44NWurM/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>2.91</v>
+        <v>5.52</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.47</v>
+        <v>5.83</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:25</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.3</v>
+        <v>4.17</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.34</v>
+        <v>4.22</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.59</v>
+        <v>1.63</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.09</v>
+        <v>1.61</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-swansea/MgsngrDq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-leicester/x44NWurM/</t>
         </is>
       </c>
     </row>
@@ -4161,62 +4161,62 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.17</v>
+        <v>2.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>26/08/2023 15:25</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>19/08/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
           <t>26/08/2023 15:56</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>20/08/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:54</t>
-        </is>
-      </c>
       <c r="R41" t="n">
-        <v>3.61</v>
+        <v>2.59</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.94</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-swansea/MgsngrDq/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.36</v>
+        <v>2.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,31 +4284,31 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.22</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.67</v>
+        <v>3.19</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>26/08/2023 15:48</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-leeds/Uw1FY1D9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-stoke-city/8UaJXLSF/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.36</v>
+        <v>2.39</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.69</v>
+        <v>2.36</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:36</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:48</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.23</v>
+        <v>3.3</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/08/2023 12:12</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.07</v>
+        <v>3.02</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:56</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-norwich/YB76zOrc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-leeds/Uw1FY1D9/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.99</v>
+        <v>3.36</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.02</v>
+        <v>3.69</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>26/08/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>20/08/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>26/08/2023 15:54</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:13</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R44" t="n">
-        <v>3.77</v>
+        <v>2.23</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:13</t>
+          <t>20/08/2023 12:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.89</v>
+        <v>2.07</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-sunderland/K8JOBv6d/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-norwich/YB76zOrc/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:54</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.39</v>
+        <v>3.61</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.01</v>
+        <v>3.77</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/08/2023 11:42</t>
+          <t>19/08/2023 15:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.47</v>
+        <v>3.89</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-sheffield-wed/GC4JcO4S/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-sunderland/K8JOBv6d/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.48</v>
+        <v>4.01</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.05</v>
+        <v>3.47</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>26/08/2023 15:40</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-plymouth/tIKKCKjj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-sheffield-wed/GC4JcO4S/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.49</v>
+        <v>3.63</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.29</v>
+        <v>4.48</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 11:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.12</v>
+        <v>4.05</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:40</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-plymouth/tIKKCKjj/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>2</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.35</v>
+        <v>2.18</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5.41</v>
+        <v>3.68</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>5.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>9.029999999999999</v>
+        <v>3.29</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>20/08/2023 12:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.76</v>
+        <v>3.12</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>26/08/2023 15:54</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-qpr/Gf3RVacS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-middlesbrough/YBqbQwLk/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.21</v>
+        <v>3.68</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.26</v>
+        <v>4.25</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.09</v>
+        <v>4.34</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>4.27</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>4.57</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.75</v>
+        <v>3.87</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.03</v>
+        <v>1.86</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>6.46</v>
+        <v>1.81</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.71</v>
+        <v>2.72</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.43</v>
+        <v>2.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.49</v>
+        <v>4.58</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.58</v>
+        <v>5.48</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.26</v>
+        <v>5.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.72</v>
+        <v>5.71</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.38</v>
+        <v>6.43</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.27</v>
+        <v>1.51</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.57</v>
+        <v>1.48</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.87</v>
+        <v>4.75</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.89</v>
+        <v>4.93</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.86</v>
+        <v>6.03</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>6.46</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.39</v>
+        <v>4.46</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.25</v>
+        <v>5.26</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.34</v>
+        <v>6.09</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.48</v>
+        <v>3.58</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>5.97</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.07</v>
+        <v>4.42</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.86</v>
+        <v>2.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.52</v>
+        <v>2.45</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.78</v>
+        <v>2.75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.93</v>
+        <v>2.31</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.5</v>
+        <v>2.69</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.81</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.77</v>
+        <v>4.09</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.98</v>
+        <v>1.86</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>4.04</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>4.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6829,34 +6829,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.55</v>
+        <v>2.33</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.97</v>
+        <v>2.37</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6864,36 +6864,36 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.13</v>
+        <v>3.07</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.98</v>
+        <v>2.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.42</v>
+        <v>3.81</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.96</v>
+        <v>3.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.77</v>
+        <v>3.74</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.78</v>
+        <v>3.04</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.34</v>
+        <v>3.28</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.76</v>
+        <v>2.47</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,40 +7872,40 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
+          <t>20/09/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R81" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T81" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.39</v>
+        <v>3.46</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.27</v>
+        <v>3.83</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,31 +7964,31 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.43</v>
+        <v>1.98</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.42</v>
+        <v>3.43</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.98</v>
+        <v>2.95</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.08</v>
+        <v>2.56</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.78</v>
+        <v>2.29</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8485,62 +8485,62 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.11</v>
+        <v>3.57</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.69</v>
+        <v>4.08</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.02</v>
+        <v>3.78</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.77</v>
+        <v>2.07</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.97</v>
+        <v>3.42</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.96</v>
+        <v>4.12</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.7</v>
+        <v>3.94</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Bristol City</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
       <c r="J90" t="n">
-        <v>1.63</v>
+        <v>2.53</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>2.21</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.36</v>
+        <v>3.56</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.28</v>
+        <v>3.71</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R90" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T90" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>2</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.53</v>
+        <v>2.96</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.21</v>
+        <v>3.43</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.71</v>
+        <v>3.92</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.85</v>
+        <v>2.39</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.26</v>
+        <v>2.07</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.96</v>
+        <v>1.71</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.43</v>
+        <v>1.77</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.92</v>
+        <v>3.97</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.39</v>
+        <v>4.96</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.07</v>
+        <v>4.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,22 +8953,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.95</v>
+        <v>1.63</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.52</v>
+        <v>1.66</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8976,40 +8976,40 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.3</v>
+        <v>4.36</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.25</v>
+        <v>4.28</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.56</v>
+        <v>5.19</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.29</v>
+        <v>5.15</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.42</v>
+        <v>4.38</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.12</v>
+        <v>4.69</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.94</v>
+        <v>5.02</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>2.39</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.93</v>
+        <v>2.78</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.55</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.52</v>
+        <v>2.99</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.81</v>
+        <v>3.65</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.65</v>
+        <v>3.53</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.19</v>
+        <v>3.82</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.17</v>
+        <v>3.63</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.75</v>
+        <v>2.01</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.11</v>
+        <v>4.23</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.67</v>
+        <v>3.94</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>4.7</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>2.39</v>
+        <v>2.08</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.78</v>
+        <v>2.31</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.55</v>
+        <v>3.52</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.99</v>
+        <v>3.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.65</v>
+        <v>3.36</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
-        <v>3.65</v>
+        <v>2.81</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.53</v>
+        <v>2.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.82</v>
+        <v>3.19</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.63</v>
+        <v>3.17</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>1.84</v>
+        <v>2.94</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.59</v>
+        <v>2.93</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.76</v>
+        <v>3.42</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.06</v>
+        <v>3.34</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>6.43</v>
+        <v>2.59</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>3</v>
-      </c>
       <c r="J108" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.31</v>
+        <v>1.59</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.52</v>
+        <v>3.76</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.36</v>
+        <v>4.06</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.72</v>
+        <v>4.5</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.36</v>
+        <v>6.43</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -10509,34 +10509,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>2.01</v>
+        <v>2.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10544,36 +10544,36 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.03</v>
+        <v>2.75</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>2.77</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.11</v>
+        <v>4.8</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10785,34 +10785,34 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.61</v>
+        <v>2.01</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -10820,36 +10820,36 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.75</v>
+        <v>4.03</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.77</v>
+        <v>3.83</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.46</v>
+        <v>3.71</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.34</v>
+        <v>3.62</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.69</v>
+        <v>5.74</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.44</v>
+        <v>5.85</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.53</v>
+        <v>9.67</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>7.17</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.68</v>
+        <v>1.44</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.82</v>
+        <v>1.5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.49</v>
+        <v>4.69</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.36</v>
+        <v>4.44</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.68</v>
+        <v>7.53</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.66</v>
+        <v>7.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.71</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.62</v>
+        <v>3.34</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>QPR</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.32</v>
+        <v>2.68</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.32</v>
+        <v>2.82</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>5.74</v>
+        <v>3.49</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.85</v>
+        <v>3.36</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>9.67</v>
+        <v>2.68</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>9.470000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>4.16</v>
+        <v>2.87</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.49</v>
+        <v>2.6</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.44</v>
+        <v>3.78</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.63</v>
+        <v>3.28</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>6.17</v>
+        <v>4.16</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>7.06</v>
+        <v>2.96</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.54</v>
+        <v>1.49</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.46</v>
+        <v>4.44</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.62</v>
+        <v>4.63</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.87</v>
+        <v>6.17</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.8</v>
+        <v>7.06</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>2.3</v>
+        <v>4.14</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.32</v>
+        <v>4.37</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.33</v>
+        <v>3.92</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.13</v>
+        <v>1.88</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.38</v>
+        <v>1.83</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.01</v>
+        <v>2.3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.67</v>
+        <v>3.13</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>1.72</v>
+        <v>3.07</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.81</v>
+        <v>3.65</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.94</v>
+        <v>3.62</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.61</v>
+        <v>3.81</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>4.91</v>
+        <v>2.32</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>4.95</v>
+        <v>2.03</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>4.29</v>
+        <v>3.78</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>4.22</v>
+        <v>3.93</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>4.91</v>
+        <v>4.42</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>5.23</v>
+        <v>4.98</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -13185,14 +13185,14 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.22</v>
+        <v>2.71</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.59</v>
+        <v>3.53</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.39</v>
+        <v>3.55</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.28</v>
+        <v>2.62</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.64</v>
+        <v>4.29</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.77</v>
+        <v>4.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.15</v>
+        <v>4.91</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.65</v>
+        <v>5.23</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -13369,14 +13369,14 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.55</v>
+        <v>3.39</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>2.62</v>
+        <v>3.28</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.78</v>
+        <v>3.94</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.93</v>
+        <v>3.61</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.42</v>
+        <v>4.91</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.98</v>
+        <v>4.95</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13545,71 +13545,71 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>3.07</v>
+        <v>2.01</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.65</v>
+        <v>2.05</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>13/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
           <t>21/10/2023 15:38</t>
         </is>
       </c>
-      <c r="N143" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P143" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:38</t>
-        </is>
-      </c>
       <c r="R143" t="n">
-        <v>2.32</v>
+        <v>3.67</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.03</v>
+        <v>3.68</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,531 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:19</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:19</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
           <t>Swansea</t>
         </is>
       </c>
-      <c r="G144" t="n">
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>1</v>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="J148" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:31</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:31</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:27</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45223.875</v>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>Leicester</t>
         </is>
       </c>
-      <c r="I144" t="n">
-        <v>3</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:59</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P144" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R144" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T144" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:51</t>
-        </is>
-      </c>
-      <c r="V144" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-sunderland/0rTiIeoJ/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.76</v>
+        <v>3.53</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.69</v>
+        <v>3.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.98</v>
+        <v>2.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.62</v>
+        <v>2.77</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.37</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.42</v>
+        <v>3.39</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.78</v>
+        <v>2.76</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.34</v>
+        <v>2.69</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>19/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>19/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="R78" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S78" t="inlineStr">
         <is>
           <t>16/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q78" t="inlineStr">
+      <c r="T78" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U78" t="inlineStr">
         <is>
           <t>19/09/2023 20:41</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:41</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.95</v>
+        <v>1.98</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.56</v>
+        <v>4.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.29</v>
+        <v>3.78</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.78</v>
+        <v>3.94</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.94</v>
+        <v>2.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.07</v>
+        <v>3.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.12</v>
+        <v>2.56</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.94</v>
+        <v>2.29</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8972,11 +8972,11 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.36</v>
+        <v>4.11</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,32 +8984,32 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9064,11 +9064,11 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.11</v>
+        <v>4.36</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.38</v>
+        <v>4.28</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.69</v>
+        <v>5.19</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.02</v>
+        <v>5.15</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.38</v>
+        <v>3.55</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.81</v>
+        <v>2.65</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,32 +9720,32 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>30/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>30/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R101" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>3.65</v>
+        <v>2.81</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.53</v>
+        <v>2.65</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.82</v>
+        <v>3.19</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.63</v>
+        <v>3.17</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.31</v>
+        <v>3.53</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.52</v>
+        <v>3.82</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.36</v>
+        <v>3.63</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.72</v>
+        <v>2.01</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.36</v>
+        <v>2.13</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.11</v>
+        <v>4.23</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.67</v>
+        <v>3.94</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.91</v>
+        <v>4.7</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>West Brom</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>4</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.81</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.65</v>
+        <v>1.59</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.19</v>
+        <v>3.76</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.17</v>
+        <v>4.06</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3</v>
+        <v>6.43</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.59</v>
+        <v>2.31</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.76</v>
+        <v>3.52</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.06</v>
+        <v>3.36</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.5</v>
+        <v>3.72</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>6.43</v>
+        <v>3.36</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Millwall</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
       <c r="J110" t="n">
-        <v>2.61</v>
+        <v>1.64</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.52</v>
+        <v>4.33</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.75</v>
+        <v>5.11</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.77</v>
+        <v>4.56</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
       <c r="J111" t="n">
-        <v>1.64</v>
+        <v>2.61</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.33</v>
+        <v>3.52</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.11</v>
+        <v>2.75</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.56</v>
+        <v>2.77</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.85</v>
+        <v>3.27</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.8</v>
+        <v>4.03</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.44</v>
+        <v>3.83</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.27</v>
+        <v>3.85</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.03</v>
+        <v>4.8</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.83</v>
+        <v>4.44</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.46</v>
+        <v>3.78</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.87</v>
+        <v>4.16</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.78</v>
+        <v>4.44</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.28</v>
+        <v>4.63</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.16</v>
+        <v>6.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.96</v>
+        <v>7.06</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.49</v>
+        <v>2.54</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.44</v>
+        <v>3.46</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.63</v>
+        <v>3.62</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>6.17</v>
+        <v>2.87</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.06</v>
+        <v>2.8</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:39</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>4.29</v>
+        <v>3.64</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>4.22</v>
+        <v>3.77</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:48</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.91</v>
+        <v>4.15</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.23</v>
+        <v>4.65</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.95</v>
+        <v>1.66</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.59</v>
+        <v>4.29</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.39</v>
+        <v>4.22</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.28</v>
+        <v>4.91</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.54</v>
+        <v>5.23</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.82</v>
+        <v>2.95</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.77</v>
+        <v>3.39</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.15</v>
+        <v>3.28</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.65</v>
+        <v>2.54</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
         <v>1</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>2</v>
-      </c>
       <c r="J145" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.68</v>
+        <v>2.51</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:28</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.72</v>
+        <v>3.06</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:27</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.61</v>
+        <v>3.41</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.6</v>
+        <v>3.17</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:28</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.17</v>
+        <v>2.72</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.31</v>
+        <v>3.69</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.06</v>
+        <v>2.6</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:27</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
         </is>
       </c>
     </row>
@@ -14162,6 +14162,98 @@
       <c r="V149" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/leicester-sunderland/0rTiIeoJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45223.875</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-qpr/YVc6yJos/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.29</v>
+        <v>2.99</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.2</v>
+        <v>2.76</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.71</v>
+        <v>3.43</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.04</v>
+        <v>2.47</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.28</v>
+        <v>2.68</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.99</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.47</v>
+        <v>3.53</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.68</v>
+        <v>3.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.09</v>
+        <v>3.71</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.53</v>
+        <v>3.04</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.77</v>
+        <v>1.62</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.37</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.39</v>
+        <v>4.42</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.76</v>
+        <v>3.78</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.69</v>
+        <v>5.34</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.98</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.62</v>
+        <v>2.77</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>3.37</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.42</v>
+        <v>3.39</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.78</v>
+        <v>2.76</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>5.34</v>
+        <v>2.69</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.42</v>
+        <v>3.97</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.12</v>
+        <v>4.96</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.94</v>
+        <v>4.7</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.95</v>
+        <v>1.63</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.52</v>
+        <v>1.66</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,40 +8608,40 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>4.36</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>4.28</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.56</v>
+        <v>5.19</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.29</v>
+        <v>5.15</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.71</v>
+        <v>2.95</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.77</v>
+        <v>3.52</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.97</v>
+        <v>3.25</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.11</v>
+        <v>3.62</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.38</v>
+        <v>3.42</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.69</v>
+        <v>4.12</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.02</v>
+        <v>3.94</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -9037,46 +9037,46 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.36</v>
+        <v>3.57</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.28</v>
+        <v>3.43</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -9084,15 +9084,15 @@
         </is>
       </c>
       <c r="R94" t="n">
-        <v>5.19</v>
+        <v>4.08</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.15</v>
+        <v>3.78</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>1.84</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.93</v>
+        <v>1.59</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.76</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.34</v>
+        <v>4.06</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.59</v>
+        <v>6.43</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.81</v>
+        <v>3.65</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.65</v>
+        <v>3.53</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.19</v>
+        <v>3.82</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.17</v>
+        <v>3.63</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.75</v>
+        <v>2.01</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.11</v>
+        <v>4.23</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.67</v>
+        <v>3.94</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>4.7</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>3.65</v>
+        <v>2.08</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.53</v>
+        <v>2.31</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.82</v>
+        <v>3.52</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.63</v>
+        <v>3.36</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.01</v>
+        <v>3.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.13</v>
+        <v>3.36</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>2.81</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.59</v>
+        <v>2.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.76</v>
+        <v>3.19</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.06</v>
+        <v>3.17</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.43</v>
+        <v>3</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.31</v>
+        <v>2.78</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.72</v>
+        <v>2.99</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.36</v>
+        <v>2.65</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.64</v>
+        <v>2.01</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.33</v>
+        <v>3.52</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.72</v>
+        <v>3.27</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.11</v>
+        <v>4.03</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.56</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Millwall</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>2</v>
-      </c>
       <c r="J111" t="n">
-        <v>2.61</v>
+        <v>1.71</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.75</v>
+        <v>4.8</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.77</v>
+        <v>4.44</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,48 +10716,48 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>03/10/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>03/10/2023 20:40</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O112" t="inlineStr">
+      <c r="R112" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S112" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:40</t>
-        </is>
-      </c>
-      <c r="R112" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T112" t="n">
-        <v>3.83</v>
+        <v>4.56</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.44</v>
+        <v>2.77</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.03</v>
+        <v>2.68</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.62</v>
+        <v>2.68</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.43</v>
+        <v>2.66</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.32</v>
+        <v>2.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.32</v>
+        <v>2.16</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>5.74</v>
+        <v>3.6</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>5.85</v>
+        <v>3.46</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>9.67</v>
+        <v>3.34</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>9.470000000000001</v>
+        <v>3.61</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>4.69</v>
+        <v>3.75</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.44</v>
+        <v>3.71</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.53</v>
+        <v>3.62</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>7.17</v>
+        <v>3.43</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.6</v>
+        <v>5.74</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>5.85</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.34</v>
+        <v>9.67</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.61</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.68</v>
+        <v>1.44</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.82</v>
+        <v>1.5</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>4.69</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.36</v>
+        <v>4.44</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.68</v>
+        <v>7.53</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.66</v>
+        <v>7.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>4.16</v>
+        <v>2.87</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.49</v>
+        <v>2.6</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.44</v>
+        <v>3.78</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.63</v>
+        <v>3.28</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>6.17</v>
+        <v>4.16</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>7.06</v>
+        <v>2.96</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.54</v>
+        <v>1.49</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.46</v>
+        <v>4.44</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.62</v>
+        <v>4.63</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.87</v>
+        <v>6.17</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.8</v>
+        <v>7.06</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>4.14</v>
+        <v>1.83</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>4.37</v>
+        <v>1.74</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.91</v>
+        <v>3.78</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>1.88</v>
+        <v>4.42</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1.83</v>
+        <v>4.98</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,63 +13093,63 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
         <v>1.83</v>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:37</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P138" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R138" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T138" t="n">
-        <v>4.98</v>
-      </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.64</v>
+        <v>4.29</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.77</v>
+        <v>4.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.15</v>
+        <v>4.91</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.65</v>
+        <v>5.23</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.66</v>
+        <v>2.95</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4.29</v>
+        <v>3.59</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4.22</v>
+        <v>3.39</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.91</v>
+        <v>3.28</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.23</v>
+        <v>2.54</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>1</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Coventry</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.95</v>
+        <v>1.82</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:39</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.39</v>
+        <v>3.77</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:48</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.28</v>
+        <v>4.15</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.54</v>
+        <v>4.65</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J145" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.31</v>
+        <v>3.17</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:27</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:28</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.17</v>
+        <v>2.72</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:28</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Middlesbrough</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.69</v>
+        <v>2.51</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.69</v>
+        <v>3.31</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.6</v>
+        <v>3.06</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:27</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
         </is>
       </c>
     </row>
@@ -14254,6 +14254,558 @@
       <c r="V150" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/west-brom-qpr/YVc6yJos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45224.86458333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45224.86458333334</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45224.86458333334</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45224.86458333334</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45224.86458333334</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45224.875</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-leeds/dArWVEFI/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.17</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.02</v>
+        <v>2.47</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.25</v>
+        <v>3.46</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.76</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.94</v>
+        <v>3.18</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.46</v>
+        <v>3.68</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3.61</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.18</v>
+        <v>3.63</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Leeds</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.3</v>
+        <v>5.17</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.37</v>
+        <v>4.02</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.84</v>
+        <v>4.25</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.71</v>
+        <v>3.02</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.93</v>
+        <v>2.54</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.82</v>
+        <v>3.42</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>5.37</v>
+        <v>2.44</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.34</v>
+        <v>2.97</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.54</v>
+        <v>3.48</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.36</v>
+        <v>3.48</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.97</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.48</v>
+        <v>2.04</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.26</v>
+        <v>3.82</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.48</v>
+        <v>3.69</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.68</v>
+        <v>4.66</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>3.74</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.79</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.04</v>
+        <v>3.37</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.69</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.66</v>
+        <v>1.84</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.74</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.68</v>
+        <v>3.82</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.75</v>
+        <v>5.37</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.63</v>
+        <v>4.34</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.75</v>
+        <v>1.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.31</v>
+        <v>1.93</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.29</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.69</v>
+        <v>4.5</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.44</v>
+        <v>4.09</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.95</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.09</v>
+        <v>4.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.97</v>
+        <v>2.75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.86</v>
+        <v>2.31</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.29</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.04</v>
+        <v>2.69</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.52</v>
+        <v>3.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.98</v>
+        <v>2.99</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.62</v>
+        <v>2.76</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.78</v>
+        <v>2.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.34</v>
+        <v>2.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,31 +7596,31 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.39</v>
+        <v>3.71</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.69</v>
+        <v>3.28</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.84</v>
+        <v>3.46</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.13</v>
+        <v>3.83</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,31 +7872,31 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.33</v>
+        <v>3.69</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.66</v>
+        <v>2.11</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.46</v>
+        <v>2.39</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.83</v>
+        <v>2.27</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,40 +7964,40 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
+          <t>20/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>3</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.39</v>
+        <v>2.84</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.27</v>
+        <v>3.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:38</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.43</v>
+        <v>2.42</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -8393,62 +8393,62 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.11</v>
+        <v>3.57</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.69</v>
+        <v>4.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>5.02</v>
+        <v>3.78</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.77</v>
+        <v>2.07</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.97</v>
+        <v>3.42</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.96</v>
+        <v>4.12</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.7</v>
+        <v>3.94</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.63</v>
+        <v>2.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.66</v>
+        <v>3.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,40 +8608,40 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.36</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.28</v>
+        <v>3.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.19</v>
+        <v>2.56</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>5.15</v>
+        <v>2.29</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.95</v>
+        <v>1.71</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.52</v>
+        <v>1.77</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:50</t>
-        </is>
-      </c>
       <c r="R92" t="n">
-        <v>2.56</v>
+        <v>4.96</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.29</v>
+        <v>4.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>3</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.62</v>
+        <v>4.11</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.42</v>
+        <v>4.38</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.12</v>
+        <v>4.69</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.94</v>
+        <v>5.02</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U94" t="inlineStr">
         <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:55</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.81</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>1.84</v>
+        <v>2.39</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.59</v>
+        <v>2.78</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.06</v>
+        <v>3.45</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>4.5</v>
+        <v>2.99</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>6.43</v>
+        <v>2.65</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>3.65</v>
+        <v>2.94</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.53</v>
+        <v>2.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.82</v>
+        <v>3.42</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.63</v>
+        <v>3.34</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.01</v>
+        <v>2.52</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.13</v>
+        <v>2.59</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.94</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.21</v>
+        <v>4.36</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.31</v>
+        <v>1.86</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.52</v>
+        <v>4.23</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.72</v>
+        <v>4.7</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.36</v>
+        <v>4.21</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.69</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.89</v>
+        <v>3.53</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.11</v>
+        <v>3.82</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.91</v>
+        <v>2.01</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.36</v>
+        <v>2.13</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>West Brom</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>4</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.81</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.65</v>
+        <v>1.59</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.19</v>
+        <v>3.76</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.17</v>
+        <v>4.06</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3</v>
+        <v>6.43</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.59</v>
+        <v>2.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.39</v>
+        <v>2.08</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.78</v>
+        <v>2.31</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.55</v>
+        <v>3.52</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.99</v>
+        <v>3.72</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.65</v>
+        <v>3.36</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -10509,34 +10509,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>2.01</v>
+        <v>2.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10544,36 +10544,36 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.03</v>
+        <v>2.75</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>2.77</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.85</v>
+        <v>3.27</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.8</v>
+        <v>4.03</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.44</v>
+        <v>3.83</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.11</v>
+        <v>4.8</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Millwall</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.61</v>
+        <v>1.64</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.52</v>
+        <v>4.33</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.75</v>
+        <v>5.11</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.77</v>
+        <v>4.56</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.66</v>
+        <v>3.61</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.6</v>
+        <v>4.69</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.46</v>
+        <v>4.44</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.34</v>
+        <v>7.53</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.61</v>
+        <v>7.17</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
       <c r="J118" t="n">
-        <v>2.03</v>
+        <v>2.68</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.62</v>
+        <v>2.68</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.43</v>
+        <v>2.66</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.32</v>
+        <v>2.03</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.74</v>
+        <v>3.75</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.85</v>
+        <v>3.71</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>9.67</v>
+        <v>3.62</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>9.470000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.69</v>
+        <v>5.74</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.44</v>
+        <v>5.85</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>7.53</v>
+        <v>9.67</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.17</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
-        <v>1.4</v>
+        <v>2.73</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.3</v>
+        <v>3.47</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>5.25</v>
+        <v>3.58</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>5.92</v>
+        <v>3.79</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>7.69</v>
+        <v>2.58</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>10.84</v>
+        <v>2.1</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2.35</v>
+        <v>2.69</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:21</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.23</v>
+        <v>2.77</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,42 +11989,42 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R126" t="n">
@@ -12032,20 +12032,20 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.78</v>
+        <v>4.07</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.28</v>
+        <v>4.39</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.16</v>
+        <v>5.25</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.96</v>
+        <v>6.39</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>1.55</v>
@@ -12188,11 +12188,11 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N128" t="n">
@@ -12204,11 +12204,11 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.63</v>
+        <v>4.77</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R128" t="n">
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.06</v>
+        <v>6.55</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.07</v>
+        <v>4.44</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.39</v>
+        <v>4.63</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.25</v>
+        <v>6.17</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>6.39</v>
+        <v>7.06</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.87</v>
+        <v>4.16</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>2.73</v>
+        <v>2.55</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>3.47</v>
+        <v>2.54</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.58</v>
+        <v>3.46</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.79</v>
+        <v>3.62</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.58</v>
+        <v>2.87</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.69</v>
+        <v>2.35</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.29</v>
+        <v>2.76</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P132" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>3.23</v>
       </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:46</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>2.77</v>
-      </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.56</v>
+        <v>2.78</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.44</v>
+        <v>5.25</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.77</v>
+        <v>5.92</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>6.17</v>
+        <v>7.69</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>6.55</v>
+        <v>10.84</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,63 +12817,63 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
         <v>1.83</v>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:37</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P135" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R135" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>4.98</v>
-      </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,14 +13093,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>4.14</v>
+        <v>1.83</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>4.37</v>
+        <v>1.74</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.91</v>
+        <v>3.78</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>1.88</v>
+        <v>4.42</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>1.83</v>
+        <v>4.98</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>4.29</v>
+        <v>3.94</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,11 +13308,11 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R140" t="n">
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.23</v>
+        <v>4.95</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.94</v>
+        <v>4.29</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,11 +13492,11 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R142" t="n">
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.95</v>
+        <v>5.23</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.41</v>
+        <v>3.61</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,32 +13768,32 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
           <t>24/10/2023 20:41</t>
         </is>
       </c>
-      <c r="R145" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T145" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:19</t>
-        </is>
-      </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.57</v>
+        <v>3.41</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.49</v>
+        <v>3.17</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:28</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.72</v>
+        <v>3.17</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:28</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.54</v>
+        <v>3.79</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         </is>
       </c>
       <c r="R149" t="n">
-        <v>5.59</v>
+        <v>5.37</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>5.97</v>
+        <v>5.69</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>24/10/2023 20:58</t>
+          <t>24/10/2023 20:53</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-sunderland/0rTiIeoJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-qpr/YVc6yJos/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.2</v>
+        <v>4.42</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.79</v>
+        <v>4.54</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>5.69</v>
+        <v>5.97</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>24/10/2023 20:53</t>
+          <t>24/10/2023 20:58</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-qpr/YVc6yJos/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-sunderland/0rTiIeoJ/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
         <v>2</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Coventry</t>
-        </is>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
       <c r="J151" t="n">
-        <v>3.64</v>
+        <v>2.16</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>5.34</v>
+        <v>2.53</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1.71</v>
+        <v>3.01</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -14381,14 +14381,14 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.53</v>
+        <v>4.03</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.34</v>
+        <v>3.87</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:39</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>3.01</v>
+        <v>1.91</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
       <c r="J153" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>4.03</v>
+        <v>2.35</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.57</v>
+        <v>3.72</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.87</v>
+        <v>3.49</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:39</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.38</v>
+        <v>3.64</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.91</v>
+        <v>3.17</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>2.05</v>
+        <v>3.01</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.35</v>
+        <v>3.18</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.72</v>
+        <v>3.52</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,32 +14596,32 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
+          <t>25/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
           <t>25/10/2023 20:43</t>
         </is>
       </c>
-      <c r="R154" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T154" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:43</t>
-        </is>
-      </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,14 +14657,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>3.01</v>
+        <v>3.64</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>3.18</v>
+        <v>5.34</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.52</v>
+        <v>3.66</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.44</v>
+        <v>3.86</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:42</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.37</v>
+        <v>1.71</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
         </is>
       </c>
     </row>
@@ -14806,6 +14806,1110 @@
       <c r="V156" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/stoke-city-leeds/dArWVEFI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45227.5625</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>3</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-birmingham/MRpcpEUB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45227.5625</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>4</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-huddersfield/8lClldVn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:31</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-leicester/GEFdnz0a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>3</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:40</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>3</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-norwich/0Iq1qYqI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-rotherham/f5E0ofF5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45229.875</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>23/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-west-brom/z1szVYUO/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
       <c r="J90" t="n">
-        <v>2.53</v>
+        <v>2.96</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.21</v>
+        <v>3.43</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.71</v>
+        <v>3.92</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.85</v>
+        <v>2.39</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.26</v>
+        <v>2.07</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.96</v>
+        <v>2.53</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.43</v>
+        <v>2.21</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.92</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.39</v>
+        <v>2.85</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.07</v>
+        <v>3.26</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-southampton/pW6RlZK4/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.65</v>
+        <v>2.93</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3</v>
+        <v>2.59</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.94</v>
+        <v>1.69</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.93</v>
+        <v>1.89</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.42</v>
+        <v>4.11</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.52</v>
+        <v>4.91</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.59</v>
+        <v>4.36</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>1.69</v>
+        <v>2.81</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.89</v>
+        <v>2.65</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.11</v>
+        <v>3.19</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.67</v>
+        <v>3.17</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>2.75</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -10509,34 +10509,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2.61</v>
+        <v>2.01</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10544,36 +10544,36 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.75</v>
+        <v>4.03</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.77</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.27</v>
+        <v>3.85</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.03</v>
+        <v>4.8</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.83</v>
+        <v>4.44</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>2</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
       <c r="J113" t="n">
-        <v>1.64</v>
+        <v>2.61</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.33</v>
+        <v>3.52</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>5.11</v>
+        <v>2.75</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.56</v>
+        <v>2.77</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,48 +11084,48 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
+          <t>04/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>04/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
           <t>04/10/2023 20:43</t>
         </is>
       </c>
-      <c r="N116" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:43</t>
-        </is>
-      </c>
-      <c r="R116" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>27/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T116" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>04/10/2023 20:43</t>
-        </is>
-      </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.69</v>
+        <v>3.6</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.44</v>
+        <v>3.46</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.53</v>
+        <v>3.34</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>7.17</v>
+        <v>3.61</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.68</v>
+        <v>3.62</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.66</v>
+        <v>3.43</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.03</v>
+        <v>1.32</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.14</v>
+        <v>1.32</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.75</v>
+        <v>5.74</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.71</v>
+        <v>5.85</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.62</v>
+        <v>9.67</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.43</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>5.74</v>
+        <v>4.69</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5.85</v>
+        <v>4.44</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>9.67</v>
+        <v>7.53</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>9.470000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>2.73</v>
+        <v>1.88</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.47</v>
+        <v>2.6</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.58</v>
+        <v>4.16</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.1</v>
+        <v>2.96</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.69</v>
+        <v>2.35</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.29</v>
+        <v>2.76</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P125" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
         <v>3.23</v>
       </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:46</t>
-        </is>
-      </c>
-      <c r="R125" t="n">
-        <v>2.77</v>
-      </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.56</v>
+        <v>2.78</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,42 +11989,42 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.55</v>
+        <v>3.46</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R126" t="n">
@@ -12032,20 +12032,20 @@
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.07</v>
+        <v>5.25</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.39</v>
+        <v>5.92</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.25</v>
+        <v>7.69</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>6.39</v>
+        <v>10.84</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,11 +12173,11 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>1.55</v>
@@ -12188,11 +12188,11 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N128" t="n">
@@ -12204,11 +12204,11 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.77</v>
+        <v>4.63</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>6.55</v>
+        <v>7.06</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.49</v>
+        <v>2.52</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.44</v>
+        <v>3.55</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>6.17</v>
+        <v>2.87</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.06</v>
+        <v>2.9</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.78</v>
+        <v>4.07</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.28</v>
+        <v>4.39</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.16</v>
+        <v>5.25</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.96</v>
+        <v>6.39</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.54</v>
+        <v>3.47</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.46</v>
+        <v>3.58</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.62</v>
+        <v>3.79</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.35</v>
+        <v>2.69</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:21</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.23</v>
+        <v>2.77</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>5.25</v>
+        <v>4.44</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,32 +12664,32 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>5.92</v>
+        <v>4.77</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
           <t>07/10/2023 15:33</t>
         </is>
       </c>
-      <c r="R133" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>04/10/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T133" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:33</t>
-        </is>
-      </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,14 +13277,14 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.81</v>
+        <v>2.95</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.91</v>
+        <v>3.28</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.95</v>
+        <v>2.54</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.95</v>
+        <v>1.66</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.59</v>
+        <v>4.29</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.39</v>
+        <v>4.22</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.28</v>
+        <v>4.91</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.54</v>
+        <v>5.23</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.29</v>
+        <v>3.94</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,11 +13492,11 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R142" t="n">
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.23</v>
+        <v>4.95</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.17</v>
+        <v>3.49</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:28</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.17</v>
+        <v>2.72</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
         <v>1</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
       <c r="J147" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.68</v>
+        <v>2.51</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:28</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.72</v>
+        <v>3.06</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:27</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J148" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.31</v>
+        <v>3.17</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:27</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>21/10/2023 13:43</t>
+          <t>21/10/2023 13:44</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
+          <t>28/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
           <t>28/10/2023 13:29</t>
         </is>
       </c>
-      <c r="N157" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:43</t>
-        </is>
-      </c>
-      <c r="P157" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="Q157" t="inlineStr">
+      <c r="R157" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U157" t="inlineStr">
         <is>
           <t>28/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R157" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:43</t>
-        </is>
-      </c>
-      <c r="T157" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="U157" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-birmingham/MRpcpEUB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-huddersfield/8lClldVn/</t>
         </is>
       </c>
     </row>
@@ -14925,46 +14925,46 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 13:43</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>28/10/2023 13:28</t>
+          <t>28/10/2023 13:29</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>4.9</v>
+        <v>4.28</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 13:43</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>5.77</v>
+        <v>4.68</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -14972,15 +14972,15 @@
         </is>
       </c>
       <c r="R158" t="n">
-        <v>6.55</v>
+        <v>5.74</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 13:43</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>9.699999999999999</v>
+        <v>6.42</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-huddersfield/8lClldVn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-birmingham/MRpcpEUB/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
         <v>1</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>2</v>
-      </c>
       <c r="J159" t="n">
-        <v>4.68</v>
+        <v>2.1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>6.63</v>
+        <v>1.97</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.15</v>
+        <v>3.72</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.73</v>
+        <v>4</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>1.48</v>
+        <v>3.69</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:31</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-leicester/GEFdnz0a/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I160" t="n">
-        <v>2</v>
-      </c>
       <c r="J160" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.84</v>
+        <v>3.39</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>4.16</v>
+        <v>3.19</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>4.69</v>
+        <v>3.74</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.49</v>
+        <v>2.09</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.36</v>
+        <v>2.01</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:40</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>4.97</v>
+        <v>3.52</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>5.77</v>
+        <v>3.5</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:38</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>6.12</v>
+        <v>3.73</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>7.96</v>
+        <v>4.07</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:40</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.72</v>
+        <v>4.97</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4</v>
+        <v>5.77</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.5</v>
+        <v>6.12</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>3.69</v>
+        <v>7.96</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.39</v>
+        <v>3.48</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.68</v>
+        <v>3.22</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.19</v>
+        <v>3.79</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15444,12 +15444,12 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.61</v>
+        <v>3.84</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.82</v>
+        <v>3.91</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.07</v>
+        <v>4.16</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.88</v>
+        <v>4.69</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-norwich/0Iq1qYqI/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15577,14 +15577,14 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>2.09</v>
+        <v>4.68</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>2.01</v>
+        <v>6.63</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.52</v>
+        <v>4.15</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.5</v>
+        <v>4.73</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>28/10/2023 15:38</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>3.73</v>
+        <v>1.72</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>4.07</v>
+        <v>1.48</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:31</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-leicester/GEFdnz0a/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>2.07</v>
+        <v>2.34</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.48</v>
+        <v>3.61</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.22</v>
+        <v>3.82</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.79</v>
+        <v>3.07</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.74</v>
+        <v>3.88</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-norwich/0Iq1qYqI/</t>
         </is>
       </c>
     </row>
@@ -15910,6 +15910,98 @@
       <c r="V168" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/coventry-west-brom/z1szVYUO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45233.875</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:31</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-leeds/tWHN0ZEh/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>5.17</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.47</v>
+        <v>4.02</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.46</v>
+        <v>4.25</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.76</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:50</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.18</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.68</v>
+        <v>3.46</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.61</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.63</v>
+        <v>3.18</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>5.17</v>
+        <v>2.86</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.02</v>
+        <v>3.48</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.25</v>
+        <v>3.26</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>2.68</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.02</v>
+        <v>1.71</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.54</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.44</v>
+        <v>5.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.97</v>
+        <v>4.34</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.48</v>
+        <v>2.54</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.48</v>
+        <v>3.36</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.97</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Bristol City</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.37</v>
+        <v>3.75</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.34</v>
+        <v>3.63</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-bristol-city/0Q90Liwg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.87</v>
+        <v>2.75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.46</v>
+        <v>3.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.42</v>
+        <v>2.69</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6369,42 +6369,42 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>1.97</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.97</v>
+        <v>1.86</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -6412,28 +6412,28 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.13</v>
+        <v>4.04</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.98</v>
+        <v>4.52</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.82</v>
+        <v>1.78</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.98</v>
+        <v>1.93</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.52</v>
+        <v>3.75</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.45</v>
+        <v>4.09</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.5</v>
+        <v>3.81</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.09</v>
+        <v>3.77</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.86</v>
+        <v>2.98</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.52</v>
+        <v>2.45</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.07</v>
+        <v>4.42</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,38 +6929,38 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.68</v>
+        <v>3.59</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.87</v>
+        <v>3.7</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,15 +6968,15 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.81</v>
+        <v>3.07</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.77</v>
+        <v>3.74</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.78</v>
+        <v>3.04</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.34</v>
+        <v>3.28</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.76</v>
+        <v>3.53</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.69</v>
+        <v>3.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.99</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.53</v>
+        <v>2.47</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>2.68</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.74</v>
+        <v>3.37</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.39</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>19/09/2023 20:15</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>19/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,40 +7872,40 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
+          <t>20/09/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R81" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T81" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.39</v>
+        <v>3.46</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.27</v>
+        <v>3.83</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,31 +7964,31 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.43</v>
+        <v>1.98</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.42</v>
+        <v>3.43</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.12</v>
+        <v>3.43</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.43</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.08</v>
+        <v>2.39</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.78</v>
+        <v>2.07</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.94</v>
+        <v>3.78</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.95</v>
+        <v>1.94</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.52</v>
+        <v>2.07</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.56</v>
+        <v>4.12</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.29</v>
+        <v>3.94</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:54</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.59</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>1.69</v>
+        <v>2.94</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.89</v>
+        <v>2.93</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.11</v>
+        <v>3.42</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,32 +9812,32 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.67</v>
+        <v>3.34</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>30/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>30/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:47</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>West Brom</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
       <c r="J103" t="n">
-        <v>2.81</v>
+        <v>1.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.65</v>
+        <v>1.89</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.19</v>
+        <v>4.11</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.17</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.75</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3</v>
+        <v>4.36</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -10509,34 +10509,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>2.01</v>
+        <v>2.61</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10544,36 +10544,36 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.27</v>
+        <v>3.55</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.03</v>
+        <v>2.75</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>2.77</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.64</v>
+        <v>2.01</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.33</v>
+        <v>3.52</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.72</v>
+        <v>3.27</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.11</v>
+        <v>4.03</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.56</v>
+        <v>3.83</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Millwall</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.61</v>
+        <v>1.71</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.75</v>
+        <v>4.8</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.77</v>
+        <v>4.44</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>5.25</v>
+        <v>4.44</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>5.92</v>
+        <v>4.63</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>7.69</v>
+        <v>6.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>10.84</v>
+        <v>7.06</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.44</v>
+        <v>5.25</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.63</v>
+        <v>5.92</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>6.17</v>
+        <v>7.69</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.06</v>
+        <v>10.84</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.5</v>
+        <v>1.68</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.52</v>
+        <v>1.54</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.55</v>
+        <v>4.07</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.5</v>
+        <v>4.39</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.87</v>
+        <v>5.25</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.9</v>
+        <v>6.39</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.54</v>
+        <v>2.52</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.39</v>
+        <v>3.5</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.25</v>
+        <v>2.87</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>6.39</v>
+        <v>2.9</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>3.07</v>
+        <v>1.83</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.62</v>
+        <v>3.78</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.81</v>
+        <v>3.93</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.32</v>
+        <v>4.42</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.03</v>
+        <v>4.98</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="n">
-        <v>1.83</v>
+        <v>3.07</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.74</v>
+        <v>3.65</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.78</v>
+        <v>3.62</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.93</v>
+        <v>3.81</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>4.42</v>
+        <v>2.32</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.98</v>
+        <v>2.03</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,14 +13277,14 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.95</v>
+        <v>1.81</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.59</v>
+        <v>3.94</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.39</v>
+        <v>3.61</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.28</v>
+        <v>4.91</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.54</v>
+        <v>4.95</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.66</v>
+        <v>2.95</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4.29</v>
+        <v>3.59</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4.22</v>
+        <v>3.39</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.91</v>
+        <v>3.28</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.23</v>
+        <v>2.54</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.94</v>
+        <v>4.29</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,11 +13492,11 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R142" t="n">
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.95</v>
+        <v>5.23</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J145" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.61</v>
+        <v>3.41</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.6</v>
+        <v>3.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.31</v>
+        <v>3.69</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.06</v>
+        <v>2.6</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:27</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,14 +14013,14 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>2.37</v>
+        <v>2.24</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.17</v>
+        <v>3.31</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:27</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>4.2</v>
+        <v>4.42</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.79</v>
+        <v>4.54</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         </is>
       </c>
       <c r="R149" t="n">
-        <v>5.37</v>
+        <v>5.59</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>5.69</v>
+        <v>5.97</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>24/10/2023 20:53</t>
+          <t>24/10/2023 20:58</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-qpr/YVc6yJos/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-sunderland/0rTiIeoJ/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.54</v>
+        <v>3.79</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.59</v>
+        <v>5.37</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>5.97</v>
+        <v>5.69</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>24/10/2023 20:58</t>
+          <t>24/10/2023 20:53</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-sunderland/0rTiIeoJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-qpr/YVc6yJos/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I151" t="n">
-        <v>2</v>
-      </c>
       <c r="J151" t="n">
-        <v>2.16</v>
+        <v>3.64</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.53</v>
+        <v>5.34</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.34</v>
+        <v>3.86</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>3.01</v>
+        <v>1.71</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
       <c r="J152" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>4.03</v>
+        <v>2.35</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.57</v>
+        <v>3.72</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.87</v>
+        <v>3.49</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:39</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.38</v>
+        <v>3.64</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1.91</v>
+        <v>3.17</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>2.05</v>
+        <v>3.01</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.35</v>
+        <v>3.18</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.72</v>
+        <v>3.52</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,32 +14504,32 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
+          <t>25/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
           <t>25/10/2023 20:43</t>
         </is>
       </c>
-      <c r="R153" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:43</t>
-        </is>
-      </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
         </is>
       </c>
     </row>
@@ -14557,71 +14557,71 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I154" t="n">
         <v>2</v>
       </c>
       <c r="J154" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
         <v>3.01</v>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:43</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P154" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="R154" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T154" t="n">
-        <v>2.37</v>
-      </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>5.34</v>
+        <v>4.03</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.66</v>
+        <v>3.57</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.86</v>
+        <v>3.87</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:39</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
         </is>
       </c>
     </row>
@@ -14833,46 +14833,46 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 13:43</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>28/10/2023 13:28</t>
+          <t>28/10/2023 13:29</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>4.9</v>
+        <v>4.28</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 13:43</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>5.77</v>
+        <v>4.68</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -14880,15 +14880,15 @@
         </is>
       </c>
       <c r="R157" t="n">
-        <v>6.55</v>
+        <v>5.74</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>21/10/2023 13:44</t>
+          <t>21/10/2023 13:43</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>9.699999999999999</v>
+        <v>6.42</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-huddersfield/8lClldVn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-birmingham/MRpcpEUB/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>21/10/2023 13:43</t>
+          <t>21/10/2023 13:44</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
+          <t>28/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
           <t>28/10/2023 13:29</t>
         </is>
       </c>
-      <c r="N158" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:43</t>
-        </is>
-      </c>
-      <c r="P158" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="Q158" t="inlineStr">
+      <c r="R158" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:44</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U158" t="inlineStr">
         <is>
           <t>28/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R158" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>21/10/2023 13:43</t>
-        </is>
-      </c>
-      <c r="T158" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>28/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-birmingham/MRpcpEUB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-huddersfield/8lClldVn/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.72</v>
+        <v>3.48</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.5</v>
+        <v>3.79</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.68</v>
+        <v>4</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.74</v>
+        <v>3.69</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:38</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>4.07</v>
+        <v>3.74</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.49</v>
+        <v>2.09</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.36</v>
+        <v>2.01</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:40</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.97</v>
+        <v>3.52</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>5.77</v>
+        <v>3.5</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:38</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>6.12</v>
+        <v>3.73</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>7.96</v>
+        <v>4.07</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.07</v>
+        <v>1.49</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.22</v>
+        <v>1.36</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:40</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.48</v>
+        <v>4.97</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.22</v>
+        <v>5.77</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.79</v>
+        <v>6.12</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.74</v>
+        <v>7.96</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
         </is>
       </c>
     </row>
@@ -16002,6 +16002,926 @@
       <c r="V169" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/leicester-leeds/tWHN0ZEh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>3</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>3</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-middlesbrough/EL9zbXbB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:31</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:31</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>3</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V179"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,39 +8876,39 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O92" t="inlineStr">
+      <c r="R92" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>20/09/2023 00:43</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:58</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>4.7</v>
+        <v>5.15</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.11</v>
+        <v>3.96</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.38</v>
+        <v>3.97</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.69</v>
+        <v>4.96</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.02</v>
+        <v>4.7</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9064,11 +9064,11 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.36</v>
+        <v>4.11</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,32 +9076,32 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>2.65</v>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>3</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,32 +9720,32 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>30/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
           <t>30/09/2023 15:56</t>
         </is>
       </c>
-      <c r="R101" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:56</t>
-        </is>
-      </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.94</v>
+        <v>1.69</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.93</v>
+        <v>1.89</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.42</v>
+        <v>4.11</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.52</v>
+        <v>4.91</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.59</v>
+        <v>4.36</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>1.69</v>
+        <v>2.81</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.89</v>
+        <v>2.65</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.11</v>
+        <v>3.19</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.67</v>
+        <v>3.17</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>2.75</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -10509,34 +10509,34 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2.61</v>
+        <v>2.01</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -10544,36 +10544,36 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.75</v>
+        <v>4.03</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.77</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:38</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.11</v>
+        <v>4.8</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,48 +10716,48 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>03/10/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>03/10/2023 20:40</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O112" t="inlineStr">
+      <c r="R112" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S112" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:40</t>
-        </is>
-      </c>
-      <c r="R112" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T112" t="n">
-        <v>3.83</v>
+        <v>4.56</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.44</v>
+        <v>2.77</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:38</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-millwall/Ic6wHi4c/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.78</v>
+        <v>5.25</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.28</v>
+        <v>5.92</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>4.16</v>
+        <v>7.69</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.96</v>
+        <v>10.84</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.49</v>
+        <v>2.6</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.44</v>
+        <v>3.78</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.63</v>
+        <v>3.28</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>6.17</v>
+        <v>4.16</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>7.06</v>
+        <v>2.96</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>5.25</v>
+        <v>4.44</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>5.92</v>
+        <v>4.63</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>7.69</v>
+        <v>6.17</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>10.84</v>
+        <v>7.06</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>4.14</v>
+        <v>1.83</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>4.37</v>
+        <v>1.74</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.91</v>
+        <v>3.78</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>1.88</v>
+        <v>4.42</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1.83</v>
+        <v>4.98</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>2.3</v>
+        <v>4.14</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.32</v>
+        <v>4.37</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.59</v>
+        <v>3.91</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.33</v>
+        <v>3.92</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.13</v>
+        <v>1.88</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.38</v>
+        <v>1.83</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>1</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
       <c r="J137" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>4.42</v>
+        <v>3.13</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>4.98</v>
+        <v>3.38</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
         </is>
       </c>
     </row>
@@ -13545,71 +13545,71 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
       <c r="J143" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:39</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.78</v>
+        <v>3.64</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:48</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.68</v>
+        <v>4.65</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.64</v>
+        <v>3.78</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.65</v>
+        <v>3.68</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="n">
-        <v>2.05</v>
+        <v>3.01</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.35</v>
+        <v>3.18</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.72</v>
+        <v>3.52</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,32 +14412,32 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
+          <t>25/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
           <t>25/10/2023 20:43</t>
         </is>
       </c>
-      <c r="R152" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T152" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:43</t>
-        </is>
-      </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>2</v>
       </c>
       <c r="J153" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>25/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
         <v>3.01</v>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:43</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>25/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>2.37</v>
-      </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -14565,14 +14565,14 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.16</v>
+        <v>3.03</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.53</v>
+        <v>4.03</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.34</v>
+        <v>3.87</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:39</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.01</v>
+        <v>1.91</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
       <c r="J155" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>4.03</v>
+        <v>2.35</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.57</v>
+        <v>3.72</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.87</v>
+        <v>3.49</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:39</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.38</v>
+        <v>3.64</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>1.91</v>
+        <v>3.17</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,48 +15040,48 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
           <t>28/10/2023 15:56</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O159" t="inlineStr">
+      <c r="R159" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S159" t="inlineStr">
         <is>
           <t>21/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P159" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:56</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T159" t="n">
-        <v>3.74</v>
+        <v>4.69</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.72</v>
+        <v>3.61</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.5</v>
+        <v>3.07</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-norwich/0Iq1qYqI/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
         <v>2</v>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Bristol City</t>
-        </is>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
       <c r="J161" t="n">
-        <v>2.38</v>
+        <v>4.68</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.04</v>
+        <v>6.63</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.39</v>
+        <v>4.15</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.68</v>
+        <v>4.73</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>3.19</v>
+        <v>1.72</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>3.74</v>
+        <v>1.48</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:31</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-leicester/GEFdnz0a/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:38</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>3.73</v>
+        <v>3.79</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>4.07</v>
+        <v>3.74</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.49</v>
+        <v>2.38</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.36</v>
+        <v>2.04</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:40</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.97</v>
+        <v>3.39</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>5.77</v>
+        <v>3.68</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>6.12</v>
+        <v>3.19</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>7.96</v>
+        <v>3.74</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:38</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.16</v>
+        <v>3.73</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.69</v>
+        <v>4.07</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
         <v>1</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>2</v>
-      </c>
       <c r="J165" t="n">
-        <v>4.68</v>
+        <v>2.1</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>6.63</v>
+        <v>1.97</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4.15</v>
+        <v>3.72</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.73</v>
+        <v>4</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.48</v>
+        <v>3.69</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>28/10/2023 15:31</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-leicester/GEFdnz0a/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-swansea/zefh4Txr/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:40</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.61</v>
+        <v>4.97</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.82</v>
+        <v>5.77</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>3.07</v>
+        <v>6.12</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.88</v>
+        <v>7.96</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-norwich/0Iq1qYqI/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-plymouth/QPMqkxGt/</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -16037,14 +16037,14 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2.03</v>
+        <v>2.6</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:30</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.84</v>
+        <v>2.43</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>2.61</v>
+        <v>2.03</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3.15</v>
+        <v>2.11</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.45</v>
+        <v>3.84</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
         </is>
       </c>
     </row>
@@ -16213,30 +16213,30 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
@@ -16244,31 +16244,31 @@
         </is>
       </c>
       <c r="N172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
         <v>3.31</v>
       </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P172" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q172" t="inlineStr">
         <is>
           <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,22 +16313,22 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>3.66</v>
+        <v>2.7</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>4.06</v>
+        <v>2.86</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,31 +16336,31 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.9</v>
+        <v>3.31</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>04/11/2023 15:45</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>1.96</v>
+        <v>2.82</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>1.86</v>
+        <v>2.65</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-middlesbrough/EL9zbXbB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3.03</v>
+        <v>3.67</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:30</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,48 +16512,48 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N175" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O175" t="inlineStr">
+      <c r="R175" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S175" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P175" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q175" t="inlineStr">
+      <c r="T175" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U175" t="inlineStr">
         <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R175" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T175" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U175" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.93</v>
+        <v>1.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,32 +16804,32 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>04/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -16865,63 +16865,155 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-middlesbrough/EL9zbXbB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
         <v>1</v>
       </c>
-      <c r="J179" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
-      <c r="N179" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="P179" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R179" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T179" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
-      <c r="V179" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-blackburn/2o6WbDq5/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.94</v>
+        <v>4.29</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,11 +13308,11 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R140" t="n">
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.95</v>
+        <v>5.23</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.29</v>
+        <v>3.94</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,11 +13492,11 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R142" t="n">
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.23</v>
+        <v>4.95</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13545,71 +13545,71 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.64</v>
+        <v>3.78</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.65</v>
+        <v>3.68</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>1</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:39</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.78</v>
+        <v>3.64</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.72</v>
+        <v>3.77</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:48</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.68</v>
+        <v>4.65</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.84</v>
+        <v>3.48</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.91</v>
+        <v>3.22</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="R159" t="n">
-        <v>4.16</v>
+        <v>3.79</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>4.69</v>
+        <v>3.74</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,48 +15316,48 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
           <t>28/10/2023 15:56</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O162" t="inlineStr">
+      <c r="R162" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S162" t="inlineStr">
         <is>
           <t>21/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P162" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:56</t>
-        </is>
-      </c>
-      <c r="R162" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T162" t="n">
-        <v>3.74</v>
+        <v>4.69</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:38</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.74</v>
+        <v>4.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:38</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.07</v>
+        <v>3.74</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.46</v>
+        <v>3.72</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:30</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.74</v>
+        <v>4.31</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.43</v>
+        <v>4.27</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>2.03</v>
+        <v>2.6</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:30</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.84</v>
+        <v>2.43</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.61</v>
+        <v>2.03</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>3.15</v>
+        <v>2.11</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.45</v>
+        <v>3.84</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
         </is>
       </c>
     </row>
@@ -16305,30 +16305,30 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,31 +16336,31 @@
         </is>
       </c>
       <c r="N173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
         <v>3.31</v>
       </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q173" t="inlineStr">
         <is>
           <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3.67</v>
+        <v>2.86</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.14</v>
+        <v>2.65</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.61</v>
+        <v>3.47</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>1.86</v>
+        <v>2.93</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.24</v>
+        <v>3.65</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N176" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Q176" t="inlineStr">
+      <c r="R176" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U176" t="inlineStr">
         <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R176" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>4.03</v>
+        <v>2.24</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:57</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:55</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.01</v>
+        <v>4.36</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.93</v>
+        <v>3.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:32</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.85</v>
+        <v>3.73</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.95</v>
+        <v>4.03</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.55</v>
+        <v>3.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:55</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.31</v>
+        <v>2.01</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.27</v>
+        <v>1.93</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:32</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
         </is>
       </c>
     </row>
@@ -17014,6 +17014,98 @@
       <c r="V180" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/norwich-blackburn/2o6WbDq5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45237.875</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>09/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>09/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>09/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-ipswich/hCtyMwnf/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.86</v>
+        <v>2.98</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.52</v>
+        <v>2.45</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.5</v>
+        <v>3.81</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.09</v>
+        <v>3.77</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.87</v>
+        <v>3.46</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.81</v>
+        <v>4.42</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.98</v>
+        <v>1.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.6</v>
+        <v>4.04</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.45</v>
+        <v>4.52</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.97</v>
+        <v>1.93</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.13</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.98</v>
+        <v>4.09</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.87</v>
+        <v>2.75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.46</v>
+        <v>3.29</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.42</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.29</v>
+        <v>2.99</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.2</v>
+        <v>2.76</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.71</v>
+        <v>3.43</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.04</v>
+        <v>2.47</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.28</v>
+        <v>2.68</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.99</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.76</v>
+        <v>2.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.43</v>
+        <v>3.71</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.47</v>
+        <v>3.04</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.68</v>
+        <v>3.28</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.43</v>
+        <v>3.52</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.25</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:50</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.25</v>
+        <v>3.92</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>1.69</v>
+        <v>2.81</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.89</v>
+        <v>2.65</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.11</v>
+        <v>3.19</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.67</v>
+        <v>3.17</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.91</v>
+        <v>2.75</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.36</v>
+        <v>3</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>West Brom</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
       <c r="J103" t="n">
-        <v>2.81</v>
+        <v>1.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.65</v>
+        <v>1.89</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.19</v>
+        <v>4.11</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.17</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.75</v>
+        <v>4.91</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3</v>
+        <v>4.36</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,48 +10532,48 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>03/10/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>03/10/2023 20:40</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O110" t="inlineStr">
+      <c r="R110" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S110" t="inlineStr">
         <is>
           <t>26/09/2023 20:12</t>
         </is>
       </c>
-      <c r="P110" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:40</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>26/09/2023 20:12</t>
-        </is>
-      </c>
       <c r="T110" t="n">
-        <v>3.83</v>
+        <v>4.56</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.85</v>
+        <v>3.27</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.8</v>
+        <v>4.03</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.44</v>
+        <v>3.83</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.11</v>
+        <v>4.8</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.56</v>
+        <v>4.44</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.02</v>
+        <v>1.6</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:17</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.57</v>
+        <v>5.58</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.47</v>
+        <v>6.56</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
       <c r="J115" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.6</v>
+        <v>3.02</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:17</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>5.58</v>
+        <v>2.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>6.56</v>
+        <v>2.47</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.68</v>
+        <v>3.62</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.66</v>
+        <v>3.43</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.6</v>
+        <v>5.74</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.46</v>
+        <v>5.85</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.34</v>
+        <v>9.67</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.61</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.03</v>
+        <v>1.44</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:18</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.75</v>
+        <v>4.69</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.71</v>
+        <v>4.44</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 20:40</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.62</v>
+        <v>7.53</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.43</v>
+        <v>7.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:35</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.32</v>
+        <v>2.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.32</v>
+        <v>2.16</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.74</v>
+        <v>3.6</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.85</v>
+        <v>3.46</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>9.67</v>
+        <v>3.34</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>9.470000000000001</v>
+        <v>3.61</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.44</v>
+        <v>2.68</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.5</v>
+        <v>2.82</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:18</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.69</v>
+        <v>3.49</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.44</v>
+        <v>3.36</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:40</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>7.53</v>
+        <v>2.68</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.17</v>
+        <v>2.66</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:35</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-preston/U1maCTIS/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,14 +11805,14 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.3</v>
+        <v>2.54</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>5.25</v>
+        <v>3.46</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>5.92</v>
+        <v>3.62</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>7.69</v>
+        <v>2.87</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>10.84</v>
+        <v>2.8</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.4</v>
+        <v>3.78</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:21</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.23</v>
+        <v>4.16</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.54</v>
+        <v>1.49</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.46</v>
+        <v>4.44</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.62</v>
+        <v>4.63</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.87</v>
+        <v>6.17</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.8</v>
+        <v>7.06</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.78</v>
+        <v>4.44</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.28</v>
+        <v>4.77</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.16</v>
+        <v>6.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.96</v>
+        <v>6.55</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
         </is>
       </c>
     </row>
@@ -12165,30 +12165,30 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J128" t="n">
-        <v>1.55</v>
+        <v>2.73</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.49</v>
+        <v>3.47</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,40 +12196,40 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.44</v>
+        <v>3.58</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.63</v>
+        <v>3.79</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>6.17</v>
+        <v>2.58</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.06</v>
+        <v>2.1</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.54</v>
+        <v>2.52</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.39</v>
+        <v>3.5</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.25</v>
+        <v>2.87</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>6.39</v>
+        <v>2.9</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:21</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.87</v>
+        <v>3.23</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>3.47</v>
+        <v>2.29</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.79</v>
+        <v>3.23</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.1</v>
+        <v>3.56</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>2.69</v>
+        <v>1.68</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.38</v>
+        <v>4.07</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.23</v>
+        <v>4.39</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.77</v>
+        <v>5.25</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.56</v>
+        <v>6.39</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.44</v>
+        <v>5.25</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.77</v>
+        <v>5.92</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>6.17</v>
+        <v>7.69</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>6.55</v>
+        <v>10.84</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>1</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
       <c r="J135" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.93</v>
+        <v>3.33</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.42</v>
+        <v>3.13</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.98</v>
+        <v>3.38</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>4.14</v>
+        <v>1.68</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>4.37</v>
+        <v>1.66</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.91</v>
+        <v>4.29</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.92</v>
+        <v>4.22</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>1.88</v>
+        <v>4.91</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.83</v>
+        <v>5.23</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>2.3</v>
+        <v>3.07</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,48 +13016,48 @@
         </is>
       </c>
       <c r="L137" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>2.32</v>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:59</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="O137" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P137" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T137" t="n">
-        <v>3.38</v>
+        <v>2.03</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>3</v>
       </c>
       <c r="J138" t="n">
-        <v>3.07</v>
+        <v>4.14</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.81</v>
+        <v>3.92</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -13185,14 +13185,14 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2.71</v>
+        <v>1.83</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>3.06</v>
+        <v>1.74</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.53</v>
+        <v>3.78</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.55</v>
+        <v>3.93</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.62</v>
+        <v>4.42</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.38</v>
+        <v>4.98</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>4.29</v>
+        <v>3.94</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,11 +13308,11 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R140" t="n">
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.23</v>
+        <v>4.95</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>1</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Coventry</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
       <c r="J141" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.95</v>
+        <v>1.82</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:39</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.39</v>
+        <v>3.77</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:48</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.28</v>
+        <v>4.15</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.54</v>
+        <v>4.65</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.81</v>
+        <v>2.95</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.94</v>
+        <v>3.59</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.91</v>
+        <v>3.28</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.95</v>
+        <v>2.54</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>2.01</v>
+        <v>2.71</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.05</v>
+        <v>3.06</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.78</v>
+        <v>3.53</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.67</v>
+        <v>2.62</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.68</v>
+        <v>2.38</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.64</v>
+        <v>3.78</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.65</v>
+        <v>3.68</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,48 +15040,48 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
           <t>28/10/2023 15:56</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O159" t="inlineStr">
+      <c r="R159" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S159" t="inlineStr">
         <is>
           <t>21/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P159" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:56</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T159" t="n">
-        <v>3.74</v>
+        <v>4.69</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.84</v>
+        <v>3.48</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.91</v>
+        <v>3.22</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="R162" t="n">
-        <v>4.16</v>
+        <v>3.79</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>4.69</v>
+        <v>3.74</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:38</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.07</v>
+        <v>3.74</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:38</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.74</v>
+        <v>4.07</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.95</v>
+        <v>3.03</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.72</v>
+        <v>3.46</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:30</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.31</v>
+        <v>2.74</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>4.27</v>
+        <v>2.43</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>2.6</v>
+        <v>2.03</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3.03</v>
+        <v>2.11</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:30</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.43</v>
+        <v>3.84</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>2.03</v>
+        <v>2.61</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.11</v>
+        <v>3.15</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.41</v>
+        <v>3.31</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.84</v>
+        <v>2.45</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
         </is>
       </c>
     </row>
@@ -16305,30 +16305,30 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,15 +16336,15 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.31</v>
+        <v>3.33</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -16352,15 +16352,15 @@
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.86</v>
+        <v>3.67</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.65</v>
+        <v>2.14</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,48 +16512,48 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N175" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O175" t="inlineStr">
+      <c r="R175" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S175" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P175" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q175" t="inlineStr">
+      <c r="T175" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U175" t="inlineStr">
         <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R175" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T175" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U175" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
         </is>
       </c>
     </row>
@@ -16581,46 +16581,46 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.93</v>
+        <v>1.86</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.52</v>
+        <v>3.8</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.61</v>
+        <v>3.21</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -16628,15 +16628,15 @@
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.42</v>
+        <v>4.36</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.09</v>
+        <v>3.71</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>1.86</v>
+        <v>3.73</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.24</v>
+        <v>4.03</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.8</v>
+        <v>3.63</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.21</v>
+        <v>3.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:55</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.36</v>
+        <v>2.01</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.71</v>
+        <v>1.93</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:32</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>3.73</v>
+        <v>1.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>4.03</v>
+        <v>1.95</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:57</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:55</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.01</v>
+        <v>4.31</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>1.93</v>
+        <v>4.27</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:32</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
         </is>
       </c>
     </row>
@@ -17106,6 +17106,98 @@
       <c r="V181" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/rotherham-ipswich/hCtyMwnf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45240.875</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-preston/vmi90ox7/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.71</v>
+        <v>2.01</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.06</v>
+        <v>2.05</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.53</v>
+        <v>3.78</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.62</v>
+        <v>3.67</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.38</v>
+        <v>3.68</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.01</v>
+        <v>2.71</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.05</v>
+        <v>3.06</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.78</v>
+        <v>3.53</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.72</v>
+        <v>3.55</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.67</v>
+        <v>2.62</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>3.68</v>
+        <v>2.38</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.84</v>
+        <v>3.48</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.91</v>
+        <v>3.22</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="R159" t="n">
-        <v>4.16</v>
+        <v>3.79</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>4.69</v>
+        <v>3.74</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I162" t="n">
         <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,48 +15316,48 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>28/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
           <t>28/10/2023 15:56</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O162" t="inlineStr">
+      <c r="R162" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S162" t="inlineStr">
         <is>
           <t>21/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P162" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:56</t>
-        </is>
-      </c>
-      <c r="R162" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>21/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T162" t="n">
-        <v>3.74</v>
+        <v>4.69</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-millwall/fuq5rhaO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-stoke-city/MiGhmGpg/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:38</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.74</v>
+        <v>4.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>28/10/2023 15:58</t>
+          <t>28/10/2023 15:51</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:38</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.07</v>
+        <v>3.74</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>28/10/2023 15:51</t>
+          <t>28/10/2023 15:58</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-preston/OGzIgI7P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-bristol-city/lbbd3mhl/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.46</v>
+        <v>3.72</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:30</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.74</v>
+        <v>4.31</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.43</v>
+        <v>4.27</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>2.03</v>
+        <v>2.6</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:30</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.84</v>
+        <v>2.43</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.61</v>
+        <v>2.03</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>3.15</v>
+        <v>2.11</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.45</v>
+        <v>3.84</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
         </is>
       </c>
     </row>
@@ -16305,30 +16305,30 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,31 +16336,31 @@
         </is>
       </c>
       <c r="N173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
         <v>3.31</v>
       </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q173" t="inlineStr">
         <is>
           <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
         </is>
       </c>
     </row>
@@ -16397,71 +16397,71 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3.67</v>
+        <v>2.86</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.14</v>
+        <v>2.65</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.61</v>
+        <v>3.47</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>1.86</v>
+        <v>2.93</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.24</v>
+        <v>3.65</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N176" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Q176" t="inlineStr">
+      <c r="R176" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U176" t="inlineStr">
         <is>
           <t>04/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R176" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-southampton/KMGRagUb/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>4.03</v>
+        <v>2.24</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:57</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:55</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.01</v>
+        <v>4.36</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.93</v>
+        <v>3.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>04/11/2023 15:32</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.85</v>
+        <v>3.73</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.95</v>
+        <v>4.03</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.72</v>
+        <v>3.63</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.55</v>
+        <v>3.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:55</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.31</v>
+        <v>2.01</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.27</v>
+        <v>1.93</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:32</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
         </is>
       </c>
     </row>
@@ -17198,6 +17198,98 @@
       <c r="V182" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/blackburn-preston/vmi90ox7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>3</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-birmingham/IwCrFpi0/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V183"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.91</v>
+        <v>3.37</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:41</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.84</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:48</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.78</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 15:42</t>
+          <t>07/08/2023 13:07</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.32</v>
+        <v>2.34</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
         </is>
       </c>
     </row>
@@ -1861,46 +1861,46 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>5.17</v>
+        <v>1.79</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.02</v>
+        <v>2.04</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.25</v>
+        <v>3.82</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,15 +1908,15 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>4.66</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>07/08/2023 13:07</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.94</v>
+        <v>3.74</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.47</v>
+        <v>3.48</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>12/08/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>12/08/2023 15:54</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>07/08/2023 13:08</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:50</t>
-        </is>
-      </c>
       <c r="R17" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.18</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,63 +2053,63 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.48</v>
+        <v>2.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.48</v>
+        <v>3.36</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 18:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.97</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-blackburn/Yw88JV75/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.02</v>
+        <v>2.02</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.36</v>
+        <v>3.61</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:29</t>
+          <t>12/08/2023 15:49</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 18:13</t>
+          <t>07/08/2023 13:08</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.97</v>
+        <v>3.63</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-sunderland/fm94KBha/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.82</v>
+        <v>3.46</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:50</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.66</v>
+        <v>3.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.74</v>
+        <v>3.18</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-norwich/jF2DIkNB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-sheffield-wed/4bGiND8t/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Leeds</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>5.17</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.37</v>
+        <v>4.02</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.84</v>
+        <v>4.25</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:48</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-leeds/dhsv4j8I/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-leicester/2kUPRg0P/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Stoke</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:41</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:49</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>07/08/2023 13:08</t>
+          <t>06/08/2023 15:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.63</v>
+        <v>4.32</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-stoke-city/nN5dMXNn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-qpr/8tI21653/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.39</v>
+        <v>4.46</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.25</v>
+        <v>5.26</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.34</v>
+        <v>6.09</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.27</v>
+        <v>1.51</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.57</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.87</v>
+        <v>4.75</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.89</v>
+        <v>4.93</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.86</v>
+        <v>6.03</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.81</v>
+        <v>6.46</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.72</v>
+        <v>5.71</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.38</v>
+        <v>6.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.48</v>
+        <v>3.58</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.97</v>
+        <v>3.26</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.71</v>
+        <v>2.72</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.43</v>
+        <v>2.38</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.51</v>
+        <v>4.27</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.48</v>
+        <v>4.57</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.75</v>
+        <v>3.87</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.03</v>
+        <v>1.86</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.46</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.21</v>
+        <v>3.68</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>5.26</v>
+        <v>4.25</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>6.09</v>
+        <v>4.34</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.49</v>
+        <v>4.58</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.58</v>
+        <v>5.48</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.26</v>
+        <v>5.97</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -6277,34 +6277,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.55</v>
+        <v>2.33</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.97</v>
+        <v>2.37</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -6312,36 +6312,36 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.13</v>
+        <v>3.07</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.98</v>
+        <v>2.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,11 +6392,11 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.98</v>
+        <v>2.31</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.52</v>
+        <v>3.29</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.45</v>
+        <v>3.44</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>03/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
         <v>3.68</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>3.87</v>
-      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.81</v>
+        <v>4.04</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.77</v>
+        <v>4.52</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.46</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.96</v>
+        <v>4.09</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -6653,63 +6653,63 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.04</v>
+        <v>3.81</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.52</v>
+        <v>3.77</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.09</v>
+        <v>2.45</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.07</v>
+        <v>4.42</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.24</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.09</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:15</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.53</v>
+        <v>2.76</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.71</v>
+        <v>3.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.04</v>
+        <v>3.53</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.98</v>
+        <v>2.99</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.62</v>
+        <v>2.76</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.78</v>
+        <v>2.47</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.34</v>
+        <v>2.68</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,31 +7596,31 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.39</v>
+        <v>3.71</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.69</v>
+        <v>3.28</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.84</v>
+        <v>3.46</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.13</v>
+        <v>3.83</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,31 +7872,31 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.33</v>
+        <v>3.69</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.66</v>
+        <v>2.11</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.46</v>
+        <v>2.39</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.83</v>
+        <v>2.27</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,40 +7964,40 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
+          <t>20/09/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>3</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.39</v>
+        <v>2.84</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.27</v>
+        <v>3.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:38</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.43</v>
+        <v>2.42</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.95</v>
+        <v>1.94</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.52</v>
+        <v>2.07</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.56</v>
+        <v>4.12</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.29</v>
+        <v>3.94</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N88" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T88" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,14 +8585,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.42</v>
+        <v>3.97</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4.12</v>
+        <v>4.96</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.94</v>
+        <v>4.7</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.96</v>
+        <v>1.63</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.43</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.62</v>
+        <v>4.36</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.92</v>
+        <v>4.28</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.39</v>
+        <v>5.19</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.07</v>
+        <v>5.15</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.63</v>
+        <v>2.96</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.66</v>
+        <v>3.43</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.36</v>
+        <v>3.62</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.28</v>
+        <v>3.92</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.19</v>
+        <v>2.39</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.15</v>
+        <v>2.07</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.71</v>
+        <v>2.95</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.77</v>
+        <v>3.52</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.97</v>
+        <v>3.25</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.11</v>
+        <v>3.57</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.69</v>
+        <v>4.08</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.02</v>
+        <v>3.78</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.65</v>
+        <v>2.81</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>1.84</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.93</v>
+        <v>1.59</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.76</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.34</v>
+        <v>4.06</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.59</v>
+        <v>6.43</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.81</v>
+        <v>3.65</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.65</v>
+        <v>3.53</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.19</v>
+        <v>3.82</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.17</v>
+        <v>3.63</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:37</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.75</v>
+        <v>2.01</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.11</v>
+        <v>4.23</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.67</v>
+        <v>3.94</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.91</v>
+        <v>4.7</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.86</v>
+        <v>2.31</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>4.23</v>
+        <v>3.52</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.7</v>
+        <v>3.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.21</v>
+        <v>3.36</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.53</v>
+        <v>1.89</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.82</v>
+        <v>4.11</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.01</v>
+        <v>4.91</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.13</v>
+        <v>4.36</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>2.81</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.59</v>
+        <v>2.65</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.76</v>
+        <v>3.19</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.06</v>
+        <v>3.17</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.43</v>
+        <v>3</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.31</v>
+        <v>2.78</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.72</v>
+        <v>2.99</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.36</v>
+        <v>2.65</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-middlesbrough/ETFmfUdp/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.64</v>
+        <v>2.01</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.33</v>
+        <v>3.52</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.72</v>
+        <v>3.27</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.11</v>
+        <v>4.03</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.56</v>
+        <v>3.83</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.52</v>
+        <v>4.1</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.27</v>
+        <v>3.85</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:40</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.03</v>
+        <v>4.8</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>26/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.83</v>
+        <v>4.44</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-huddersfield/hKEiglCj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.85</v>
+        <v>3.72</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:40</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>26/09/2023 20:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.44</v>
+        <v>4.56</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-hull-city/6N2ZHXli/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-cardiff/W0CQkUNl/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Sheffield Wed</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.6</v>
+        <v>3.02</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:17</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.98</v>
+        <v>3.44</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>5.58</v>
+        <v>2.57</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.56</v>
+        <v>2.47</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:53</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.02</v>
+        <v>1.6</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:17</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.44</v>
+        <v>3.98</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.57</v>
+        <v>5.58</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.47</v>
+        <v>6.56</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:53</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-southampton/0MerGBJ3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-sheffield-wed/vDfnFVY9/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,63 +11805,63 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.54</v>
+        <v>2.29</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.8</v>
+        <v>3.56</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.78</v>
+        <v>5.25</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.28</v>
+        <v>5.92</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>4.16</v>
+        <v>7.69</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.96</v>
+        <v>10.84</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.49</v>
+        <v>2.76</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>4.44</v>
+        <v>3.4</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4.63</v>
+        <v>3.27</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:21</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>6.17</v>
+        <v>3.23</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>7.06</v>
+        <v>2.78</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.44</v>
+        <v>3.78</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.77</v>
+        <v>3.28</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>6.17</v>
+        <v>4.16</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>6.55</v>
+        <v>2.96</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12165,30 +12165,30 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>4</v>
-      </c>
       <c r="J128" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.47</v>
+        <v>1.49</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,40 +12196,40 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.58</v>
+        <v>4.44</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.79</v>
+        <v>4.63</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.58</v>
+        <v>6.17</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.1</v>
+        <v>7.06</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,42 +12265,42 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.55</v>
+        <v>3.46</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R129" t="n">
@@ -12308,20 +12308,20 @@
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.35</v>
+        <v>1.68</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.76</v>
+        <v>1.54</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.4</v>
+        <v>4.07</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.27</v>
+        <v>4.39</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:21</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.23</v>
+        <v>5.25</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.78</v>
+        <v>6.39</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.38</v>
+        <v>3.55</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.56</v>
+        <v>2.9</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12533,30 +12533,30 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>4</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Preston</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>2</v>
-      </c>
       <c r="J132" t="n">
-        <v>1.68</v>
+        <v>2.73</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.54</v>
+        <v>3.47</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -12564,15 +12564,15 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>4.07</v>
+        <v>3.58</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.39</v>
+        <v>3.79</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -12580,15 +12580,15 @@
         </is>
       </c>
       <c r="R132" t="n">
-        <v>5.25</v>
+        <v>2.58</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>6.39</v>
+        <v>2.1</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>5.25</v>
+        <v>4.44</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,32 +12664,32 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>5.92</v>
+        <v>4.77</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
           <t>07/10/2023 15:33</t>
         </is>
       </c>
-      <c r="R133" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>04/10/2023 04:42</t>
-        </is>
-      </c>
-      <c r="T133" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:33</t>
-        </is>
-      </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-bristol-city/CtsISl39/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.13</v>
+        <v>4.42</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.38</v>
+        <v>4.98</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>1.68</v>
+        <v>4.14</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.66</v>
+        <v>4.37</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.29</v>
+        <v>3.91</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>4.22</v>
+        <v>3.92</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.91</v>
+        <v>1.88</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>5.23</v>
+        <v>1.83</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>3.07</v>
+        <v>2.3</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.81</v>
+        <v>3.33</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.32</v>
+        <v>3.13</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.03</v>
+        <v>3.38</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>3</v>
       </c>
       <c r="J138" t="n">
-        <v>4.14</v>
+        <v>3.07</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.92</v>
+        <v>3.81</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>1.88</v>
+        <v>2.32</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -13185,14 +13185,14 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>1.83</v>
+        <v>2.71</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.78</v>
+        <v>3.53</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.93</v>
+        <v>3.55</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.42</v>
+        <v>2.62</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>4.98</v>
+        <v>2.38</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,63 +13277,63 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.72</v>
+        <v>2.01</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.94</v>
+        <v>3.78</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.61</v>
+        <v>3.72</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.91</v>
+        <v>3.67</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.95</v>
+        <v>3.68</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.82</v>
+        <v>2.95</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:39</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.77</v>
+        <v>3.39</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:48</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.15</v>
+        <v>3.28</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.65</v>
+        <v>2.54</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.95</v>
+        <v>1.66</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.59</v>
+        <v>4.29</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.39</v>
+        <v>4.22</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.28</v>
+        <v>4.91</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.54</v>
+        <v>5.23</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.01</v>
+        <v>1.72</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.78</v>
+        <v>3.94</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.72</v>
+        <v>3.61</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.67</v>
+        <v>4.91</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>3.68</v>
+        <v>4.95</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
         <v>1</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>2</v>
-      </c>
       <c r="J144" t="n">
-        <v>2.71</v>
+        <v>1.93</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.06</v>
+        <v>1.82</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:39</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.55</v>
+        <v>3.77</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:48</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.62</v>
+        <v>4.15</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.38</v>
+        <v>4.65</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-southampton/Q1ddTLgK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-qpr/nBchU1vE/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>2.37</v>
+        <v>2.24</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.17</v>
+        <v>3.31</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.17</v>
+        <v>3.06</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:27</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:28</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J147" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.61</v>
+        <v>3.41</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.6</v>
+        <v>3.17</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.51</v>
+        <v>2.68</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.31</v>
+        <v>3.49</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:28</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.06</v>
+        <v>2.72</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:27</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
         <v>2</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Coventry</t>
-        </is>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
       <c r="J151" t="n">
-        <v>3.64</v>
+        <v>2.16</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>5.34</v>
+        <v>2.53</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1.71</v>
+        <v>3.01</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>3.18</v>
+        <v>4.03</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.44</v>
+        <v>3.87</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:42</t>
+          <t>25/10/2023 20:39</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>2</v>
-      </c>
       <c r="J153" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.53</v>
+        <v>2.35</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.5</v>
+        <v>3.72</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.55</v>
+        <v>3.64</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.01</v>
+        <v>3.17</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>4.03</v>
+        <v>3.18</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.57</v>
+        <v>3.52</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.87</v>
+        <v>3.44</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:39</t>
+          <t>25/10/2023 20:42</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1.91</v>
+        <v>2.37</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.05</v>
+        <v>3.64</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.35</v>
+        <v>5.34</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.49</v>
+        <v>3.86</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.64</v>
+        <v>2.06</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.17</v>
+        <v>1.71</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.85</v>
+        <v>2.61</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.95</v>
+        <v>3.15</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.55</v>
+        <v>3.31</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:53</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.31</v>
+        <v>2.9</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>4.27</v>
+        <v>2.45</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.46</v>
+        <v>3.72</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:30</t>
+          <t>04/11/2023 15:53</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.74</v>
+        <v>4.31</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.43</v>
+        <v>4.27</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>04/11/2023 15:31</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-hull-city/2qRCvqbj/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.03</v>
+        <v>2.6</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:34</t>
+          <t>04/11/2023 15:30</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.84</v>
+        <v>2.43</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>04/11/2023 15:12</t>
+          <t>04/11/2023 15:31</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sunderland/ADn51RM0/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2.61</v>
+        <v>2.03</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3.15</v>
+        <v>2.11</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:34</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.45</v>
+        <v>3.84</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>04/11/2023 15:56</t>
+          <t>04/11/2023 15:12</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-qpr/p8W7uPrp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-cardiff/WMm1277f/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.83</v>
+        <v>3.73</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.67</v>
+        <v>4.03</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:57</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.4</v>
+        <v>3.63</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.47</v>
+        <v>3.81</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:55</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>04/11/2023 15:59</t>
+          <t>04/11/2023 15:32</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
         </is>
       </c>
     </row>
@@ -16673,30 +16673,30 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.86</v>
+        <v>2.83</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.24</v>
+        <v>3.67</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,15 +16704,15 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -16720,15 +16720,15 @@
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.36</v>
+        <v>2.56</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.71</v>
+        <v>2.14</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-watford/CdDJ1Fan/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>4.03</v>
+        <v>2.24</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:57</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.63</v>
+        <v>3.8</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:55</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.01</v>
+        <v>4.36</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>1.93</v>
+        <v>3.71</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>04/11/2023 15:32</t>
+          <t>04/11/2023 15:59</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-ipswich/8rm9sCEU/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-sheffield-wed/Y5EF2ept/</t>
         </is>
       </c>
     </row>
@@ -17290,6 +17290,926 @@
       <c r="V183" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/championship/sunderland-birmingham/IwCrFpi0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>4</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:35</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-millwall/pQDzH6Mm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:08</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-bristol-city/SlJVHn7s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-leicester/QuX3MSbQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:31</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-plymouth/WIXaN8qK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-norwich/674PmHBp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-huddersfield/KrUeOlUD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-stoke-city/IwjDa5iD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:30</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-west-brom/OGCvGQyf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>3</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-swansea/pb3TnyRj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>5</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/watford-rotherham/WtGnE466/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:V194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.76</v>
+        <v>3.39</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.36</v>
+        <v>4.19</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.7</v>
+        <v>3.78</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.59</v>
+        <v>3.76</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.19</v>
+        <v>3.36</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.33</v>
+        <v>4.7</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.88</v>
+        <v>3.68</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.9</v>
+        <v>3.59</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.95</v>
+        <v>4.19</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5.47</v>
+        <v>4.33</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.45</v>
+        <v>1.71</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:47</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.31</v>
+        <v>3.88</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.47</v>
+        <v>3.9</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.05</v>
+        <v>4.95</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.17</v>
+        <v>5.47</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.78</v>
+        <v>3.31</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.8</v>
+        <v>3.47</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.64</v>
+        <v>3.05</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.71</v>
+        <v>3.17</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.68</v>
+        <v>3.78</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.39</v>
+        <v>3.8</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.19</v>
+        <v>4.64</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.78</v>
+        <v>4.71</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>26/08/2023 17:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.17</v>
+        <v>3.68</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>26/08/2023 17:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.94</v>
+        <v>3.39</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.51</v>
+        <v>4.25</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>26/08/2023 17:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.81</v>
+        <v>4.34</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-huddersfield/0n3uwH4e/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.64</v>
+        <v>4.27</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.56</v>
+        <v>4.57</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:28</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.21</v>
+        <v>3.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.46</v>
+        <v>3.89</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.26</v>
+        <v>1.86</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.09</v>
+        <v>1.81</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>26/08/2023 17:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.75</v>
+        <v>4.17</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>26/08/2023 17:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.93</v>
+        <v>3.94</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>6.03</v>
+        <v>5.51</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>26/08/2023 17:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>6.46</v>
+        <v>4.81</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-huddersfield/0n3uwH4e/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>2.84</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:54</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.56</v>
+        <v>3.74</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:34</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.71</v>
+        <v>2.72</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.43</v>
+        <v>2.38</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:42</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.65</v>
+        <v>4.37</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.49</v>
+        <v>4.58</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:44</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.58</v>
+        <v>5.48</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.26</v>
+        <v>5.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.74</v>
+        <v>4.56</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:34</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.72</v>
+        <v>5.71</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>28/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.38</v>
+        <v>6.43</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/09/2023 15:42</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-blackburn/UcT0paCL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-hull-city/MXPhnLs9/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.27</v>
+        <v>1.51</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.57</v>
+        <v>1.48</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.87</v>
+        <v>4.75</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.89</v>
+        <v>4.93</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.86</v>
+        <v>6.03</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>28/08/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>6.46</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-norwich/CMI5qJRR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-sheffield-wed/rsRlm1S2/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:28</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.68</v>
+        <v>4.21</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.39</v>
+        <v>4.46</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.25</v>
+        <v>5.26</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.34</v>
+        <v>6.09</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-preston/EV4Xvwzq/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-cardiff/zcojh2Sk/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>4.37</v>
+        <v>3.65</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.58</v>
+        <v>3.49</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:44</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>5.48</v>
+        <v>3.58</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>5.97</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-qpr/GfPdoucF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-watford/6Ps6OHk2/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.33</v>
+        <v>1.87</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 13:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.07</v>
+        <v>4.42</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:12</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.31</v>
+        <v>3.97</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.29</v>
+        <v>3.68</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.86</v>
+        <v>2.98</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.04</v>
+        <v>2.6</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.52</v>
+        <v>2.45</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.78</v>
+        <v>2.75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.93</v>
+        <v>2.31</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:39</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.5</v>
+        <v>2.69</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>16/09/2023 15:32</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-west-brom/dEdlyeZ7/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:48</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.68</v>
+        <v>3.95</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.87</v>
+        <v>3.75</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:39</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.81</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.77</v>
+        <v>4.09</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:32</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-stoke-city/pzwqcxdR/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.98</v>
+        <v>1.86</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>4.04</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.45</v>
+        <v>4.52</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16/09/2023 15:47</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-sunderland/00rEiGJl/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-rotherham/AHpWavC8/</t>
         </is>
       </c>
     </row>
@@ -6829,34 +6829,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.55</v>
+        <v>2.33</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.97</v>
+        <v>2.37</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6864,36 +6864,36 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.13</v>
+        <v>3.07</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>03/09/2023 16:12</t>
+          <t>03/09/2023 15:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.98</v>
+        <v>2.98</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-ipswich/rPXIjzZf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-middlesbrough/rBhpxyK1/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:48</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>16/09/2023 13:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.42</v>
+        <v>3.81</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>03/09/2023 15:42</t>
+          <t>03/09/2023 16:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.96</v>
+        <v>3.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>16/09/2023 14:12</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-birmingham/jkyRlE37/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-plymouth/2FPAhd4r/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>2.99</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.62</v>
+        <v>2.76</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:38</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.78</v>
+        <v>2.47</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:39</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.34</v>
+        <v>2.68</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:40</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:15</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.76</v>
+        <v>3.53</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.69</v>
+        <v>3.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.09</v>
+        <v>3.71</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.53</v>
+        <v>3.04</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-birmingham/YD0BdQMD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
         </is>
       </c>
     </row>
@@ -7473,30 +7473,30 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7504,40 +7504,40 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>4.42</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:38</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.47</v>
+        <v>3.78</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>16/09/2023 17:39</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.68</v>
+        <v>5.34</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>19/09/2023 20:40</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-swansea/QoErbhG8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-plymouth/UuzVmYID/</t>
         </is>
       </c>
     </row>
@@ -7565,30 +7565,30 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7596,40 +7596,40 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.74</v>
+        <v>3.37</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.39</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>19/09/2023 20:15</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>19/09/2023 20:44</t>
         </is>
       </c>
-      <c r="R78" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:44</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-ipswich/vDSrvI6n/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-coventry/neFvaY02/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Rotherham</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.87</v>
+        <v>3.09</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>17/09/2023 09:57</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.65</v>
+        <v>3.11</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>20/09/2023 20:44</t>
+          <t>20/09/2023 20:41</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.83</v>
+        <v>3.13</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,40 +7872,40 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.69</v>
+        <v>3.33</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>16/09/2023 17:40</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
+          <t>20/09/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
           <t>20/09/2023 20:42</t>
         </is>
       </c>
-      <c r="R81" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>16/09/2023 17:40</t>
-        </is>
-      </c>
-      <c r="T81" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>20/09/2023 20:42</t>
-        </is>
-      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
         </is>
       </c>
     </row>
@@ -7933,30 +7933,30 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.39</v>
+        <v>3.46</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.27</v>
+        <v>3.83</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,31 +7964,31 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:42</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>16/09/2023 17:40</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.43</v>
+        <v>1.98</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-leeds/x6slyGj5/</t>
         </is>
       </c>
     </row>
@@ -8025,30 +8025,30 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,40 +8056,40 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:36</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.09</v>
+        <v>4.87</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>17/09/2023 09:57</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.11</v>
+        <v>5.65</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>20/09/2023 20:41</t>
+          <t>20/09/2023 20:44</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-sunderland/I3RnwxMh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-rotherham/WSthzz6B/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>20/09/2023 20:38</t>
+          <t>20/09/2023 20:36</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.42</v>
+        <v>3.43</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-stoke-city/bFrpxdya/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-west-brom/Sfz1YDzO/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.62</v>
+        <v>3.57</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.94</v>
+        <v>3.78</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:49</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.11</v>
+        <v>3.62</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.38</v>
+        <v>3.42</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.69</v>
+        <v>4.12</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.02</v>
+        <v>3.94</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:49</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-sheffield-wed/IgWkdWpL/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1.71</v>
+        <v>2.95</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.77</v>
+        <v>3.52</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.96</v>
+        <v>3.3</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>20/09/2023 00:43</t>
+          <t>18/09/2023 19:42</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.97</v>
+        <v>3.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R89" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>20/09/2023 00:43</t>
-        </is>
-      </c>
-      <c r="T89" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.63</v>
+        <v>2.96</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>3.43</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.36</v>
+        <v>3.62</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.28</v>
+        <v>3.92</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.19</v>
+        <v>2.39</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.15</v>
+        <v>2.07</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.96</v>
+        <v>1.71</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.43</v>
+        <v>1.77</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.92</v>
+        <v>3.97</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.39</v>
+        <v>4.96</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.07</v>
+        <v>4.7</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-norwich/OM5VmgzB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-watford/vZ3Jjejh/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.95</v>
+        <v>1.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.52</v>
+        <v>1.66</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.3</v>
+        <v>4.11</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:50</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.56</v>
+        <v>4.69</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.29</v>
+        <v>5.02</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-preston/tb0zmDkH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-blackburn/dAEEiyyn/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>18/09/2023 19:42</t>
+          <t>20/09/2023 00:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U94" t="inlineStr">
         <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>18/09/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-millwall/EBbroiKT/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-bristol-city/j97NkF5b/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:54</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.06</v>
+        <v>2.52</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>30/09/2023 15:55</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>1.84</v>
+        <v>2.81</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.59</v>
+        <v>2.65</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.76</v>
+        <v>3.19</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.06</v>
+        <v>3.17</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:37</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>6.43</v>
+        <v>3</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.53</v>
+        <v>1.89</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.82</v>
+        <v>4.11</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.01</v>
+        <v>4.91</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.13</v>
+        <v>4.36</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:47</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.23</v>
+        <v>3.76</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.94</v>
+        <v>4.06</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.21</v>
+        <v>6.43</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:43</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-rotherham/0ILfej0R/</t>
         </is>
       </c>
     </row>
@@ -9957,71 +9957,71 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.31</v>
+        <v>1.86</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.52</v>
+        <v>4.23</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:18</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.72</v>
+        <v>4.7</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.36</v>
+        <v>4.21</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:43</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-plymouth/Q3s03YZc/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.69</v>
+        <v>3.65</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.89</v>
+        <v>3.53</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.11</v>
+        <v>3.82</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.91</v>
+        <v>2.01</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.36</v>
+        <v>2.13</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:47</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-birmingham/4ft42hk4/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-ipswich/WSSd4EKi/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
         <v>2.81</v>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R106" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T106" t="n">
-        <v>3</v>
-      </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:55</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-west-brom/nJV81C4A/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-stoke-city/hxUh5f5o/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.94</v>
+        <v>2.08</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.93</v>
+        <v>2.31</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:54</t>
+          <t>30/09/2023 14:18</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.52</v>
+        <v>3.72</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.59</v>
+        <v>3.36</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:56</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-coventry/0MZC0WJG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-swansea/2R7MjA8r/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.03</v>
+        <v>2.68</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.14</v>
+        <v>2.82</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:37</t>
+          <t>04/10/2023 19:57</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.62</v>
+        <v>2.68</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.43</v>
+        <v>2.66</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>04/10/2023 20:44</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.32</v>
+        <v>2.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.32</v>
+        <v>2.16</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:22</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>5.74</v>
+        <v>3.6</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>5.85</v>
+        <v>3.46</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:30</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>9.67</v>
+        <v>3.34</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>29/09/2023 15:42</t>
+          <t>27/09/2023 20:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>9.470000000000001</v>
+        <v>3.61</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>04/10/2023 20:43</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:22</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.6</v>
+        <v>5.74</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.46</v>
+        <v>5.85</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:30</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.34</v>
+        <v>9.67</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>27/09/2023 20:12</t>
+          <t>29/09/2023 15:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.61</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sunderland-watford/0pvV67tj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-qpr/nwbfD93M/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.68</v>
+        <v>2.03</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.82</v>
+        <v>2.14</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>04/10/2023 19:57</t>
+          <t>04/10/2023 20:37</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.68</v>
+        <v>3.62</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.66</v>
+        <v>3.43</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>04/10/2023 20:43</t>
+          <t>04/10/2023 20:44</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-norwich/AiBUllwe/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-blackburn/8najEklG/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,63 +11805,63 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2.69</v>
+        <v>1.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.29</v>
+        <v>1.3</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.38</v>
+        <v>5.25</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.23</v>
+        <v>5.92</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.77</v>
+        <v>7.69</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.56</v>
+        <v>10.84</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:33</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.3</v>
+        <v>2.76</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>5.92</v>
+        <v>3.27</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:21</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>7.69</v>
+        <v>3.23</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>10.84</v>
+        <v>2.78</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>07/10/2023 15:33</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-rotherham/hb127vX0/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
         </is>
       </c>
     </row>
@@ -11981,71 +11981,71 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.4</v>
+        <v>3.78</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:21</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.23</v>
+        <v>4.16</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-huddersfield/E72b8KHf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,63 +12081,63 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.78</v>
+        <v>4.44</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.28</v>
+        <v>4.63</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.16</v>
+        <v>6.17</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.96</v>
+        <v>7.06</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-hull-city/6sajAtmr/</t>
+          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.49</v>
+        <v>2.54</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.44</v>
+        <v>3.46</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.63</v>
+        <v>3.62</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:06</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>6.17</v>
+        <v>2.87</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.06</v>
+        <v>2.8</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:55</t>
+          <t>07/10/2023 15:47</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leicester-stoke-city/QqoMR8IF/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.55</v>
+        <v>1.68</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.54</v>
+        <v>1.54</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.46</v>
+        <v>4.07</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.62</v>
+        <v>4.39</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:06</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.87</v>
+        <v>5.25</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.8</v>
+        <v>6.39</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:47</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-swansea/6J4wmS77/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.54</v>
+        <v>2.52</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.07</v>
+        <v>3.55</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.39</v>
+        <v>3.5</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.25</v>
+        <v>2.87</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>04/10/2023 04:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>6.39</v>
+        <v>2.9</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-preston/IJsETUm3/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.52</v>
+        <v>3.47</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.5</v>
+        <v>3.79</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:36</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-norwich/vTrAUAYd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>3.47</v>
+        <v>2.29</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.58</v>
+        <v>3.38</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.79</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.1</v>
+        <v>3.56</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:36</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-blackburn/pYcf902l/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-watford/hG0Zm8h1/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,63 +12817,63 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
         <v>1.83</v>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:37</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P135" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:37</t>
-        </is>
-      </c>
-      <c r="R135" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>4.98</v>
-      </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>3</v>
-      </c>
       <c r="J136" t="n">
-        <v>4.14</v>
+        <v>2.3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>4.37</v>
+        <v>2.32</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.91</v>
+        <v>3.59</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.92</v>
+        <v>3.33</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>1.88</v>
+        <v>3.13</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.83</v>
+        <v>3.38</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-leicester/bDiPAVaE/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>2.3</v>
+        <v>3.07</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,48 +13016,48 @@
         </is>
       </c>
       <c r="L137" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>2.32</v>
       </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:59</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="O137" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>09/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P137" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:59</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>09/10/2023 14:42</t>
-        </is>
-      </c>
       <c r="T137" t="n">
-        <v>3.38</v>
+        <v>2.03</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>21/10/2023 15:59</t>
+          <t>21/10/2023 15:34</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-sunderland/zyWuLc10/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>3.07</v>
+        <v>1.83</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>3.65</v>
+        <v>1.74</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.62</v>
+        <v>3.78</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.81</v>
+        <v>3.93</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.32</v>
+        <v>4.42</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.03</v>
+        <v>4.98</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>21/10/2023 15:34</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-leeds/pnwTNaHs/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-birmingham/rwi1Su9Q/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,63 +13277,63 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.78</v>
+        <v>3.59</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:38</t>
+          <t>21/10/2023 15:47</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.67</v>
+        <v>3.28</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>13/10/2023 15:43</t>
+          <t>09/10/2023 14:42</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3.68</v>
+        <v>2.54</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:29</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.95</v>
+        <v>1.66</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:37</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.59</v>
+        <v>4.29</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.39</v>
+        <v>4.22</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:47</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.28</v>
+        <v>4.91</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>2.54</v>
+        <v>5.23</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>21/10/2023 15:29</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-coventry/Y79A5I1D/</t>
+          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:37</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.29</v>
+        <v>3.94</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,11 +13492,11 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4.22</v>
+        <v>3.61</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="R142" t="n">
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.23</v>
+        <v>4.95</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:49</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/west-brom-plymouth/MiUmJyWC/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.72</v>
+        <v>2.01</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.94</v>
+        <v>3.78</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.61</v>
+        <v>3.72</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:38</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.91</v>
+        <v>3.67</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>09/10/2023 14:42</t>
+          <t>13/10/2023 15:43</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.95</v>
+        <v>3.68</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:49</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-sheffield-wed/ERUqKHG6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/blackburn-cardiff/KMhLBBp8/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J145" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.31</v>
+        <v>3.17</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:31</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.06</v>
+        <v>3.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>24/10/2023 20:27</t>
+          <t>24/10/2023 20:19</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:28</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>24/10/2023 20:19</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.41</v>
+        <v>3.61</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,32 +13952,32 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
           <t>24/10/2023 20:41</t>
         </is>
       </c>
-      <c r="R147" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>20/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T147" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:19</t>
-        </is>
-      </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/huddersfield-cardiff/vP8M9kFK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-middlesbrough/GjBvtawQ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Blackburn</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.68</v>
+        <v>2.51</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:28</t>
+          <t>24/10/2023 20:31</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.72</v>
+        <v>3.06</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:27</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/millwall-blackburn/2m7zsuOJ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-watford/IF7Q89UQ/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Hull</t>
-        </is>
-      </c>
-      <c r="I151" t="n">
-        <v>2</v>
-      </c>
       <c r="J151" t="n">
-        <v>2.16</v>
+        <v>3.64</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.53</v>
+        <v>5.34</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.34</v>
+        <v>3.86</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>3.55</v>
+        <v>2.06</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>3.01</v>
+        <v>1.71</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>25/10/2023 20:37</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>4.03</v>
+        <v>3.18</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.57</v>
+        <v>3.52</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.87</v>
+        <v>3.44</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:39</t>
+          <t>25/10/2023 20:42</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1.91</v>
+        <v>2.37</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>25/10/2023 20:41</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.35</v>
+        <v>4.03</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.72</v>
+        <v>3.57</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.49</v>
+        <v>3.87</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:39</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.64</v>
+        <v>2.38</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.17</v>
+        <v>1.91</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/bristol-city-ipswich/UciFZdGg/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>3.01</v>
+        <v>2.05</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.18</v>
+        <v>2.35</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25/10/2023 20:42</t>
+          <t>25/10/2023 20:43</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.42</v>
+        <v>3.64</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.37</v>
+        <v>3.17</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-southampton/2BkNXzo6/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-sheffield-wed/8ljJYGVa/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
         <v>2</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Coventry</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
       <c r="J155" t="n">
-        <v>3.64</v>
+        <v>2.16</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>5.34</v>
+        <v>2.53</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:41</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>1.71</v>
+        <v>3.01</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>25/10/2023 20:43</t>
+          <t>25/10/2023 20:37</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/rotherham-coventry/EogRWf0C/</t>
+          <t>https://www.betexplorer.com/football/england/championship/birmingham-hull-city/CMdAzw1m/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,22 +16405,22 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>2.7</v>
+        <v>3.66</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.86</v>
+        <v>4.06</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.31</v>
+        <v>3.9</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>28/10/2023 18:13</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.33</v>
+        <v>4.04</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>04/11/2023 15:45</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>04/11/2023 15:56</t>
         </is>
       </c>
-      <c r="R174" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T174" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>04/11/2023 15:56</t>
-        </is>
-      </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-middlesbrough/EL9zbXbB/</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -16865,22 +16865,22 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>3.66</v>
+        <v>2.7</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>4.06</v>
+        <v>2.86</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -16888,31 +16888,31 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.9</v>
+        <v>3.31</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>04/11/2023 15:45</t>
+          <t>04/11/2023 15:56</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>1.96</v>
+        <v>2.82</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>28/10/2023 18:13</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>1.86</v>
+        <v>2.65</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-middlesbrough/EL9zbXbB/</t>
+          <t>https://www.betexplorer.com/football/england/championship/preston-coventry/8r9vciEH/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.6</v>
+        <v>3.16</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>11/11/2023 15:35</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>11/11/2023 15:27</t>
+          <t>11/11/2023 15:08</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.91</v>
+        <v>2.56</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>3.18</v>
+        <v>2.52</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-millwall/pQDzH6Mm/</t>
+          <t>https://www.betexplorer.com/football/england/championship/qpr-bristol-city/SlJVHn7s/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.82</v>
+        <v>1.93</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>3.16</v>
+        <v>2</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:30</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.42</v>
+        <v>3.73</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.18</v>
+        <v>3.63</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>11/11/2023 15:08</t>
+          <t>11/11/2023 15:30</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>2.56</v>
+        <v>4.07</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2.52</v>
+        <v>3.95</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:30</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/qpr-bristol-city/SlJVHn7s/</t>
+          <t>https://www.betexplorer.com/football/england/championship/southampton-west-brom/OGCvGQyf/</t>
         </is>
       </c>
     </row>
@@ -17501,22 +17501,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J186" t="n">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -17524,15 +17524,15 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:35</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>3.55</v>
+        <v>3.19</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -17540,15 +17540,15 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3.62</v>
+        <v>3.04</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:27</t>
         </is>
       </c>
       <c r="R186" t="n">
-        <v>2.56</v>
+        <v>2.91</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -17556,16 +17556,16 @@
         </is>
       </c>
       <c r="T186" t="n">
-        <v>2.56</v>
+        <v>3.18</v>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-leicester/QuX3MSbQ/</t>
+          <t>https://www.betexplorer.com/football/england/championship/sheffield-wed-millwall/pQDzH6Mm/</t>
         </is>
       </c>
     </row>
@@ -17593,22 +17593,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1.29</v>
+        <v>2.79</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>1.24</v>
+        <v>2.77</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:31</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>6.4</v>
+        <v>3.55</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>6.98</v>
+        <v>3.62</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>9.59</v>
+        <v>2.56</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>11.16</v>
+        <v>2.56</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/leeds-plymouth/WIXaN8qK/</t>
+          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-leicester/QuX3MSbQ/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.45</v>
+        <v>4.51</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.69</v>
+        <v>4.44</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>2.93</v>
+        <v>6.76</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.89</v>
+        <v>7.78</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:53</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/cardiff-norwich/674PmHBp/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-rotherham/WtGnE466/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
@@ -17808,7 +17808,7 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.83</v>
+        <v>4.43</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.57</v>
+        <v>4.64</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:45</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>4.35</v>
+        <v>5.42</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>5.29</v>
+        <v>5.78</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:56</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/hull-city-huddersfield/KrUeOlUD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/ipswich-swansea/pb3TnyRj/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:56</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.77</v>
+        <v>3.83</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.14</v>
+        <v>4.35</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.33</v>
+        <v>5.29</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:56</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/coventry-stoke-city/IwjDa5iD/</t>
+          <t>https://www.betexplorer.com/football/england/championship/hull-city-huddersfield/KrUeOlUD/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:30</t>
+          <t>11/11/2023 15:56</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.73</v>
+        <v>3.77</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.63</v>
+        <v>3.59</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:30</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.07</v>
+        <v>4.14</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.95</v>
+        <v>3.33</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:30</t>
+          <t>11/11/2023 15:56</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/southampton-west-brom/OGCvGQyf/</t>
+          <t>https://www.betexplorer.com/football/england/championship/coventry-stoke-city/IwjDa5iD/</t>
         </is>
       </c>
     </row>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G192" t="n">
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
         <v>3</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="I192" t="n">
+      <c r="J192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
         <v>2</v>
       </c>
-      <c r="J192" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O192" t="inlineStr">
         <is>
           <t>04/11/2023 17:13</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N192" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="O192" t="inlineStr">
+      <c r="P192" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S192" t="inlineStr">
         <is>
           <t>04/11/2023 17:13</t>
         </is>
       </c>
-      <c r="P192" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Q192" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:45</t>
-        </is>
-      </c>
-      <c r="R192" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>04/11/2023 17:13</t>
-        </is>
-      </c>
       <c r="T192" t="n">
-        <v>5.78</v>
+        <v>3.89</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:56</t>
+          <t>11/11/2023 15:53</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/ipswich-swansea/pb3TnyRj/</t>
+          <t>https://www.betexplorer.com/football/england/championship/cardiff-norwich/674PmHBp/</t>
         </is>
       </c>
     </row>
@@ -18145,71 +18145,163 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:31</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/leeds-plymouth/WIXaN8qK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>championship</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45254.875</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
           <t>Rotherham</t>
         </is>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>04/11/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:32</t>
-        </is>
-      </c>
-      <c r="N193" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>04/11/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P193" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:32</t>
-        </is>
-      </c>
-      <c r="R193" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>04/11/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T193" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="U193" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:32</t>
-        </is>
-      </c>
-      <c r="V193" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-rotherham/WtGnE466/</t>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/championship/rotherham-leeds/CIMMFHsB/</t>
         </is>
       </c>
     </row>

--- a/2023/england_championship_2023-2024.xlsx
+++ b/2023/england_championship_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V194"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Millwall</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.39</v>
+        <v>3.76</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.19</v>
+        <v>3.36</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.78</v>
+        <v>4.7</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/middlesbrough-millwall/E59nEzWP/</t>
+          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.76</v>
+        <v>3.59</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.36</v>
+        <v>4.19</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 11:46</t>
+          <t>22/06/2023 11:48</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/watford-qpr/SCkN7Y8g/</t>
+          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.59</v>
+        <v>3.9</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.19</v>
+        <v>4.95</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 11:48</t>
+          <t>22/06/2023 11:47</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.33</v>
+        <v>5.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:53</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/swansea-birmingham/tzQGw3Dd/</t>
+          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.71</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.69</v>
+        <v>2.36</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.88</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.9</v>
+        <v>3.47</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.95</v>
+        <v>3.05</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.47</v>
+        <v>3.17</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/stoke-city-rotherham/63lR6hOa/</t>
+          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plymouth</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.78</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.47</v>
+        <v>3.8</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>4.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.17</v>
+        <v>4.71</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 15:58</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/championship/plymouth-huddersfield/AyeI8Egm/</t>
+          <t>https://www.betexplorer.com/football/england/championship/norwich-hull-city/WpdE9fvs/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 11:47</t>
+          <t>22/06/2023 11:46</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N8" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22/06/2023 11:46</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>22/06/2023 11:46</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>3.78</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>22/06/2023 11:47</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22/06/2023 11:47</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>4.71</v>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/